--- a/Race_Gender_Breakdown.xlsx
+++ b/Race_Gender_Breakdown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/as822/Documents/GitHub/FLXSUS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455C079E-4752-0241-A628-D76AEE14C685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB376AD-8437-2549-B3A2-EF52F74518B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-5480" windowWidth="34400" windowHeight="28300" xr2:uid="{101D7EF5-ACAD-E84A-BEB6-A21BB2D31C28}"/>
+    <workbookView xWindow="63200" yWindow="-5480" windowWidth="34400" windowHeight="28300" xr2:uid="{101D7EF5-ACAD-E84A-BEB6-A21BB2D31C28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="81">
   <si>
     <t>FLNSUS 21 Pre</t>
   </si>
@@ -265,6 +265,21 @@
   <si>
     <t>P-VALUE TO ACGME</t>
   </si>
+  <si>
+    <t>http://www.biostathandbook.com/chiind.html</t>
+  </si>
+  <si>
+    <t>bonf handbook</t>
+  </si>
+  <si>
+    <t>http://www.biostathandbook.com/multiplecomparisons.html#bonferroni</t>
+  </si>
+  <si>
+    <t>Attendance at 2021 and 2022</t>
+  </si>
+  <si>
+    <t>Total 2022</t>
+  </si>
 </sst>
 </file>
 
@@ -339,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -364,6 +379,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA2A70C-FCDE-6F48-94D9-0CF2A215B8C8}">
   <dimension ref="A1:AF511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -699,7 +717,7 @@
     <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,7 +791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="b">
         <v>0</v>
       </c>
@@ -856,7 +874,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -939,7 +957,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="b">
         <v>1</v>
       </c>
@@ -1022,7 +1040,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="b">
         <v>1</v>
       </c>
@@ -1105,7 +1123,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="b">
         <v>1</v>
       </c>
@@ -1188,7 +1206,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -1232,7 +1250,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="b">
         <v>1</v>
       </c>
@@ -1282,7 +1300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="b">
         <v>1</v>
       </c>
@@ -1326,7 +1344,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="b">
         <v>1</v>
       </c>
@@ -1372,8 +1390,11 @@
       <c r="Q10" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AC10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="b">
         <v>1</v>
       </c>
@@ -1419,8 +1440,12 @@
       <c r="Q11" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AC11">
+        <f>COUNTIFS(A:A,TRUE,C:C,TRUE)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="b">
         <v>0</v>
       </c>
@@ -1463,8 +1488,11 @@
       <c r="N12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AC12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="b">
         <v>1</v>
       </c>
@@ -1513,8 +1541,12 @@
       <c r="R13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AC13">
+        <f>COUNTIF(C:C,TRUE)</f>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="b">
         <v>1</v>
       </c>
@@ -1564,7 +1596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="b">
         <v>0</v>
       </c>
@@ -1614,7 +1646,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="b">
         <v>0</v>
       </c>
@@ -6754,14 +6786,14 @@
         <v>18</v>
       </c>
       <c r="R103">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="S103">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="T103">
         <f>S103+R103</f>
-        <v>111</v>
+        <v>289</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.2">
@@ -6811,14 +6843,14 @@
         <v>35</v>
       </c>
       <c r="R104">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="S104">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="T104">
         <f t="shared" ref="T104:T109" si="19">S104+R104</f>
-        <v>45</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.2">
@@ -6868,14 +6900,14 @@
         <v>36</v>
       </c>
       <c r="R105">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="S105">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="T105">
         <f t="shared" si="19"/>
-        <v>66</v>
+        <v>187</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.2">
@@ -6925,14 +6957,14 @@
         <v>16</v>
       </c>
       <c r="R106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T106">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.2">
@@ -6982,14 +7014,14 @@
         <v>38</v>
       </c>
       <c r="R107">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="S107">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="T107">
         <f t="shared" si="19"/>
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.2">
@@ -7039,14 +7071,14 @@
         <v>19</v>
       </c>
       <c r="R108">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="S108">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="T108">
         <f t="shared" si="19"/>
-        <v>56</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.2">
@@ -7096,14 +7128,14 @@
         <v>23</v>
       </c>
       <c r="R109">
-        <v>123</v>
+        <v>263</v>
       </c>
       <c r="S109">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="T109">
         <f t="shared" si="19"/>
-        <v>206</v>
+        <v>545</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.2">
@@ -7251,11 +7283,11 @@
       </c>
       <c r="R112">
         <f>SUM((R$109*$T103)/$T$109)</f>
-        <v>66.27669902912622</v>
+        <v>139.46238532110092</v>
       </c>
       <c r="S112">
         <f>SUM((S$109*$T103)/$T$109)</f>
-        <v>44.723300970873787</v>
+        <v>149.53761467889908</v>
       </c>
     </row>
     <row r="113" spans="1:32" x14ac:dyDescent="0.2">
@@ -7306,11 +7338,11 @@
       </c>
       <c r="R113">
         <f>SUM((R$109*$T104)/$T$109)</f>
-        <v>26.868932038834952</v>
+        <v>51.152293577981652</v>
       </c>
       <c r="S113">
         <f t="shared" ref="S113:S117" si="20">SUM((S$109*$T104)/$T$109)</f>
-        <v>18.131067961165048</v>
+        <v>54.847706422018348</v>
       </c>
     </row>
     <row r="114" spans="1:32" x14ac:dyDescent="0.2">
@@ -7361,11 +7393,11 @@
       </c>
       <c r="R114">
         <f t="shared" ref="R114" si="21">SUM((R$109*$T105)/$T$109)</f>
-        <v>39.407766990291265</v>
+        <v>90.240366972477062</v>
       </c>
       <c r="S114">
         <f t="shared" si="20"/>
-        <v>26.592233009708739</v>
+        <v>96.759633027522938</v>
       </c>
     </row>
     <row r="115" spans="1:32" x14ac:dyDescent="0.2">
@@ -7416,11 +7448,11 @@
       </c>
       <c r="R115">
         <f t="shared" ref="R115" si="22">SUM((R$109*$T106)/$T$109)</f>
-        <v>2.3883495145631066</v>
+        <v>4.8256880733944953</v>
       </c>
       <c r="S115">
         <f t="shared" si="20"/>
-        <v>1.6116504854368932</v>
+        <v>5.1743119266055047</v>
       </c>
     </row>
     <row r="116" spans="1:32" x14ac:dyDescent="0.2">
@@ -7471,11 +7503,11 @@
       </c>
       <c r="R116">
         <f t="shared" ref="R116" si="23">SUM((R$109*$T107)/$T$109)</f>
-        <v>15.524271844660195</v>
+        <v>29.91926605504587</v>
       </c>
       <c r="S116">
         <f t="shared" si="20"/>
-        <v>10.475728155339805</v>
+        <v>32.080733944954126</v>
       </c>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.2">
@@ -7526,11 +7558,11 @@
       </c>
       <c r="R117">
         <f t="shared" ref="R117" si="24">SUM((R$109*$T108)/$T$109)</f>
-        <v>33.436893203883493</v>
+        <v>64.181651376146789</v>
       </c>
       <c r="S117">
         <f t="shared" si="20"/>
-        <v>22.563106796116504</v>
+        <v>68.818348623853211</v>
       </c>
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.2">
@@ -7669,7 +7701,13 @@
       </c>
       <c r="R120">
         <f>_xlfn.CHISQ.TEST(R103:S108,R112:S117)</f>
-        <v>8.1514407486379309E-2</v>
+        <v>0.11415906027864048</v>
+      </c>
+      <c r="U120" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="V120" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="121" spans="1:32" x14ac:dyDescent="0.2">
@@ -7714,6 +7752,10 @@
       </c>
       <c r="N121" t="s">
         <v>49</v>
+      </c>
+      <c r="U121" s="13"/>
+      <c r="V121" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="122" spans="1:32" x14ac:dyDescent="0.2">
@@ -8612,14 +8654,14 @@
         <v>49</v>
       </c>
       <c r="R136">
+        <v>29</v>
+      </c>
+      <c r="S136">
         <v>36</v>
-      </c>
-      <c r="S136">
-        <v>13</v>
       </c>
       <c r="T136">
         <f>SUM(R136:S136)</f>
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.2">
@@ -8669,14 +8711,14 @@
         <v>47</v>
       </c>
       <c r="R137">
+        <v>91</v>
+      </c>
+      <c r="S137">
         <v>111</v>
-      </c>
-      <c r="S137">
-        <v>67</v>
       </c>
       <c r="T137">
         <f>SUM(R137:S137)</f>
-        <v>178</v>
+        <v>202</v>
       </c>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.2">
@@ -8726,14 +8768,14 @@
         <v>74</v>
       </c>
       <c r="R138">
+        <v>120</v>
+      </c>
+      <c r="S138">
         <v>147</v>
-      </c>
-      <c r="S138">
-        <v>80</v>
       </c>
       <c r="T138">
         <f>SUM(R138:S138)</f>
-        <v>227</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.2">
@@ -8881,11 +8923,11 @@
       </c>
       <c r="R141">
         <f>SUM((R$138*$T136)/$T$138)</f>
-        <v>31.731277533039648</v>
+        <v>29.213483146067414</v>
       </c>
       <c r="S141">
         <f>SUM((S$138*$T136)/$T$138)</f>
-        <v>17.268722466960352</v>
+        <v>35.786516853932582</v>
       </c>
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.2">
@@ -8936,11 +8978,11 @@
       </c>
       <c r="R142">
         <f>SUM((R$138*$T137)/$T$138)</f>
-        <v>115.26872246696036</v>
+        <v>90.786516853932582</v>
       </c>
       <c r="S142">
         <f>SUM((S$138*$T137)/$T$138)</f>
-        <v>62.731277533039645</v>
+        <v>111.21348314606742</v>
       </c>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.2">
@@ -9036,8 +9078,9 @@
       </c>
       <c r="R144">
         <f>_xlfn.CHISQ.TEST(R136:S137,R141:S142)</f>
-        <v>0.14943377270511676</v>
-      </c>
+        <v>0.9512002203131803</v>
+      </c>
+      <c r="U144" s="13"/>
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" t="b">
@@ -9082,6 +9125,7 @@
       <c r="N145" t="s">
         <v>47</v>
       </c>
+      <c r="U145" s="13"/>
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" t="b">

--- a/Race_Gender_Breakdown.xlsx
+++ b/Race_Gender_Breakdown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/as822/Documents/GitHub/FLXSUS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB376AD-8437-2549-B3A2-EF52F74518B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91697EF2-C5F9-8B43-8543-D7FA4821ACCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63200" yWindow="-5480" windowWidth="34400" windowHeight="28300" xr2:uid="{101D7EF5-ACAD-E84A-BEB6-A21BB2D31C28}"/>
+    <workbookView xWindow="28800" yWindow="-5480" windowWidth="34400" windowHeight="28300" xr2:uid="{101D7EF5-ACAD-E84A-BEB6-A21BB2D31C28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="82">
   <si>
     <t>FLNSUS 21 Pre</t>
   </si>
@@ -110,13 +110,7 @@
     <t>Unduplicated Total</t>
   </si>
   <si>
-    <t>Actually, it looks like ACGME still does it with duplicates "alone or in combination" so they don't have a multiracial column</t>
-  </si>
-  <si>
     <t>But they don't report for non-US citizens… challenging to compare</t>
-  </si>
-  <si>
-    <t>So the ACGME Data look like this</t>
   </si>
   <si>
     <t>Other Race/Ethnicity</t>
@@ -212,9 +206,6 @@
     <t>Did this to get ready</t>
   </si>
   <si>
-    <t>Unduplocated Total</t>
-  </si>
-  <si>
     <t>here we leave out non male or female people in order to conform to ACGME (again…)</t>
   </si>
   <si>
@@ -279,6 +270,18 @@
   </si>
   <si>
     <t>Total 2022</t>
+  </si>
+  <si>
+    <t>Actually, it looks like AAMC still does it with duplicates "alone or in combination" so they don't have a multiracial column</t>
+  </si>
+  <si>
+    <t>So the AAMC Data look like this</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>DO</t>
   </si>
 </sst>
 </file>
@@ -699,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA2A70C-FCDE-6F48-94D9-0CF2A215B8C8}">
   <dimension ref="A1:AF511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+    <sheetView tabSelected="1" topLeftCell="O64" zoomScale="116" workbookViewId="0">
+      <selection activeCell="W92" sqref="W92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -755,10 +758,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -829,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q2" t="s">
         <v>0</v>
@@ -912,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q3" t="s">
         <v>1</v>
@@ -995,10 +998,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q4" t="s">
         <v>2</v>
@@ -1078,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q5" t="s">
         <v>3</v>
@@ -1161,10 +1164,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q6" t="s">
         <v>4</v>
@@ -1244,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
@@ -1288,10 +1291,10 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>15</v>
@@ -1338,10 +1341,10 @@
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -1382,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="AC10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -1432,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC11">
         <f>COUNTIFS(A:A,TRUE,C:C,TRUE)</f>
@@ -1483,13 +1486,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AC12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -1530,16 +1533,22 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="R13" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="S13" t="s">
+        <v>80</v>
+      </c>
+      <c r="T13" t="s">
+        <v>81</v>
       </c>
       <c r="AC13">
         <f>COUNTIF(C:C,TRUE)</f>
@@ -1584,16 +1593,23 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="R14">
+        <f t="shared" ref="R14:R22" si="5">S14+T14</f>
         <v>9</v>
+      </c>
+      <c r="S14">
+        <v>9</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
@@ -1634,16 +1650,23 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R15">
+        <f t="shared" si="5"/>
+        <v>361</v>
+      </c>
+      <c r="S15">
         <v>350</v>
+      </c>
+      <c r="T15">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
@@ -1684,19 +1707,26 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="R16">
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S16">
+        <v>71</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="b">
         <v>1</v>
       </c>
@@ -1734,19 +1764,26 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="R17">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+      <c r="S17">
         <v>113</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="b">
         <v>0</v>
       </c>
@@ -1784,19 +1821,26 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>20</v>
       </c>
       <c r="R18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="b">
         <v>0</v>
       </c>
@@ -1834,19 +1878,26 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>21</v>
       </c>
       <c r="R19">
+        <f t="shared" si="5"/>
+        <v>931</v>
+      </c>
+      <c r="S19">
         <v>893</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="b">
         <v>0</v>
       </c>
@@ -1884,19 +1935,26 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R20">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="S20">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="b">
         <v>1</v>
       </c>
@@ -1934,19 +1992,26 @@
         <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q21" s="6" t="s">
         <v>22</v>
       </c>
       <c r="R21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="b">
         <v>1</v>
       </c>
@@ -1984,19 +2049,26 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R22">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="S22">
         <v>134</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="b">
         <v>0</v>
       </c>
@@ -2034,19 +2106,26 @@
         <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>23</v>
       </c>
       <c r="R23">
+        <f>S23+T23</f>
+        <v>1568</v>
+      </c>
+      <c r="S23">
         <v>1512</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T23">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="b">
         <v>0</v>
       </c>
@@ -2084,13 +2163,13 @@
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="b">
         <v>0</v>
       </c>
@@ -2128,113 +2207,113 @@
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q25" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" t="b">
+        <v>0</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>48</v>
+      </c>
+      <c r="N26" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>48</v>
+      </c>
+      <c r="N27" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q27" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" t="b">
-        <v>0</v>
-      </c>
-      <c r="B26" t="b">
-        <v>0</v>
-      </c>
-      <c r="C26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="b">
-        <v>1</v>
-      </c>
-      <c r="K26" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" t="s">
-        <v>50</v>
-      </c>
-      <c r="N26" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q26" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" t="b">
-        <v>1</v>
-      </c>
-      <c r="B27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27" t="s">
-        <v>50</v>
-      </c>
-      <c r="N27" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q27" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="R27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="b">
         <v>1</v>
       </c>
@@ -2272,19 +2351,20 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q28" s="6" t="s">
         <v>16</v>
       </c>
       <c r="R28">
+        <f>R14</f>
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="b">
         <v>1</v>
       </c>
@@ -2322,19 +2402,20 @@
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q29" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R29">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+        <f>R15</f>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="b">
         <v>1</v>
       </c>
@@ -2372,19 +2453,20 @@
         <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>18</v>
       </c>
       <c r="R30">
+        <f>R16</f>
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="b">
         <v>1</v>
       </c>
@@ -2422,19 +2504,20 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>19</v>
       </c>
       <c r="R31">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+        <f>R17</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="b">
         <v>0</v>
       </c>
@@ -2472,19 +2555,20 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>20</v>
       </c>
       <c r="R32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+        <f>R18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="b">
         <v>1</v>
       </c>
@@ -2522,19 +2606,20 @@
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>21</v>
       </c>
       <c r="R33">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+        <f>R19</f>
+        <v>931</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="b">
         <v>0</v>
       </c>
@@ -2572,69 +2657,71 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
+        <v>46</v>
+      </c>
+      <c r="N34" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R34">
+        <f>R20</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" t="b">
+        <v>0</v>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
         <v>48</v>
       </c>
-      <c r="N34" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R34">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A35" t="b">
-        <v>0</v>
-      </c>
-      <c r="B35" t="b">
-        <v>0</v>
-      </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="b">
-        <v>1</v>
-      </c>
-      <c r="K35" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" t="b">
-        <v>0</v>
-      </c>
-      <c r="M35" t="s">
-        <v>50</v>
-      </c>
       <c r="N35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>22</v>
       </c>
       <c r="R35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+        <f>R21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="b">
         <v>0</v>
       </c>
@@ -2672,20 +2759,20 @@
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>23</v>
       </c>
       <c r="R36">
-        <f>R23-R22</f>
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+        <f>R23</f>
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="b">
         <v>1</v>
       </c>
@@ -2723,20 +2810,20 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R37">
         <f>SUM(R28:R35)</f>
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="b">
         <v>1</v>
       </c>
@@ -2774,107 +2861,107 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
+        <v>46</v>
+      </c>
+      <c r="N38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>46</v>
+      </c>
+      <c r="N39" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" t="b">
+        <v>1</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
         <v>48</v>
       </c>
-      <c r="N38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B39" t="b">
-        <v>0</v>
-      </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="b">
-        <v>1</v>
-      </c>
-      <c r="F39" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="b">
-        <v>0</v>
-      </c>
-      <c r="K39" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" t="s">
-        <v>48</v>
-      </c>
-      <c r="N39" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q39" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A40" t="b">
-        <v>1</v>
-      </c>
-      <c r="B40" t="b">
-        <v>1</v>
-      </c>
-      <c r="C40" t="b">
-        <v>0</v>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="b">
-        <v>0</v>
-      </c>
-      <c r="K40" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" t="b">
-        <v>0</v>
-      </c>
-      <c r="M40" t="s">
-        <v>50</v>
-      </c>
       <c r="N40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="b">
         <v>1</v>
       </c>
@@ -2912,19 +2999,20 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q41" s="6" t="s">
         <v>18</v>
       </c>
       <c r="R41">
+        <f>R30</f>
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="b">
         <v>0</v>
       </c>
@@ -2962,73 +3050,74 @@
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N42" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R42">
+        <f>R33</f>
+        <v>931</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>46</v>
+      </c>
+      <c r="N43" t="s">
         <v>47</v>
       </c>
-      <c r="Q42" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R42">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B43" t="b">
-        <v>1</v>
-      </c>
-      <c r="C43" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="b">
-        <v>0</v>
-      </c>
-      <c r="K43" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" t="b">
-        <v>0</v>
-      </c>
-      <c r="M43" t="s">
-        <v>48</v>
-      </c>
-      <c r="N43" t="s">
-        <v>49</v>
-      </c>
       <c r="Q43" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R43">
         <f>R29+R32</f>
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="b">
         <v>1</v>
       </c>
@@ -3066,19 +3155,20 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q44" s="6" t="s">
         <v>16</v>
       </c>
       <c r="R44">
+        <f>R28</f>
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="b">
         <v>1</v>
       </c>
@@ -3116,192 +3206,183 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
+        <v>46</v>
+      </c>
+      <c r="N45" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R45" t="s">
+        <v>38</v>
+      </c>
+      <c r="S45" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>46</v>
+      </c>
+      <c r="N46" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R46">
+        <f>R34+R35</f>
+        <v>69</v>
+      </c>
+      <c r="S46" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B47" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47" t="s">
         <v>48</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N47" t="s">
         <v>47</v>
       </c>
-      <c r="Q45" s="6" t="s">
+      <c r="Q47" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R45" t="s">
-        <v>40</v>
-      </c>
-      <c r="S45" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B46" t="b">
-        <v>0</v>
-      </c>
-      <c r="C46" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" t="b">
-        <v>1</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="b">
-        <v>0</v>
-      </c>
-      <c r="K46" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" t="b">
-        <v>0</v>
-      </c>
-      <c r="M46" t="s">
-        <v>48</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="R47" t="s">
+        <v>38</v>
+      </c>
+      <c r="S47" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B48" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>46</v>
+      </c>
+      <c r="N48" t="s">
         <v>47</v>
-      </c>
-      <c r="Q46" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R46">
-        <f>R35+R34</f>
-        <v>66</v>
-      </c>
-      <c r="S46" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A47" t="b">
-        <v>0</v>
-      </c>
-      <c r="B47" t="b">
-        <v>0</v>
-      </c>
-      <c r="C47" t="b">
-        <v>1</v>
-      </c>
-      <c r="D47" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" t="b">
-        <v>0</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K47" t="b">
-        <v>0</v>
-      </c>
-      <c r="L47" t="b">
-        <v>1</v>
-      </c>
-      <c r="M47" t="s">
-        <v>50</v>
-      </c>
-      <c r="N47" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q47" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="R47" t="s">
-        <v>40</v>
-      </c>
-      <c r="S47" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B48" t="b">
-        <v>0</v>
-      </c>
-      <c r="C48" t="b">
-        <v>1</v>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" t="b">
-        <v>0</v>
-      </c>
-      <c r="F48" t="b">
-        <v>1</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="b">
-        <v>0</v>
-      </c>
-      <c r="K48" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" t="b">
-        <v>0</v>
-      </c>
-      <c r="M48" t="s">
-        <v>48</v>
-      </c>
-      <c r="N48" t="s">
-        <v>49</v>
       </c>
       <c r="Q48" s="6" t="s">
         <v>19</v>
       </c>
       <c r="R48">
         <f>R31</f>
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S48" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" t="b">
         <v>1</v>
       </c>
@@ -3339,23 +3420,20 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q49" s="6" t="s">
         <v>23</v>
       </c>
       <c r="R49">
         <f>R36-R35</f>
-        <v>1377</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" t="b">
         <v>0</v>
       </c>
@@ -3393,154 +3471,145 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
+        <v>46</v>
+      </c>
+      <c r="N50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A51" t="b">
+        <v>0</v>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>46</v>
+      </c>
+      <c r="N51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A52" t="b">
+        <v>0</v>
+      </c>
+      <c r="B52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>46</v>
+      </c>
+      <c r="N52" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A53" t="b">
+        <v>1</v>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" t="s">
         <v>48</v>
       </c>
-      <c r="N50" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A51" t="b">
-        <v>0</v>
-      </c>
-      <c r="B51" t="b">
-        <v>0</v>
-      </c>
-      <c r="C51" t="b">
-        <v>1</v>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" t="b">
-        <v>1</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="b">
-        <v>0</v>
-      </c>
-      <c r="K51" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" t="b">
-        <v>0</v>
-      </c>
-      <c r="M51" t="s">
-        <v>48</v>
-      </c>
-      <c r="N51" t="s">
+      <c r="N53" t="s">
         <v>47</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A52" t="b">
-        <v>0</v>
-      </c>
-      <c r="B52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C52" t="b">
-        <v>1</v>
-      </c>
-      <c r="D52" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52" t="b">
-        <v>1</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="b">
-        <v>0</v>
-      </c>
-      <c r="K52" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" t="b">
-        <v>0</v>
-      </c>
-      <c r="M52" t="s">
-        <v>48</v>
-      </c>
-      <c r="N52" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A53" t="b">
-        <v>1</v>
-      </c>
-      <c r="B53" t="b">
-        <v>1</v>
-      </c>
-      <c r="C53" t="b">
-        <v>0</v>
-      </c>
-      <c r="D53" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53" t="b">
-        <v>0</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="b">
-        <v>0</v>
-      </c>
-      <c r="K53" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" t="b">
-        <v>1</v>
-      </c>
-      <c r="M53" t="s">
-        <v>50</v>
-      </c>
-      <c r="N53" t="s">
-        <v>49</v>
       </c>
       <c r="R53" t="s">
         <v>0</v>
@@ -3558,7 +3627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" t="b">
         <v>0</v>
       </c>
@@ -3596,10 +3665,10 @@
         <v>0</v>
       </c>
       <c r="M54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q54" s="6" t="s">
         <v>18</v>
@@ -3625,7 +3694,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" t="b">
         <v>0</v>
       </c>
@@ -3663,13 +3732,13 @@
         <v>0</v>
       </c>
       <c r="M55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R55">
         <f>COUNTIFS(A:A,TRUE,$G:$G,TRUE)</f>
@@ -3692,7 +3761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" t="b">
         <v>1</v>
       </c>
@@ -3730,13 +3799,13 @@
         <v>1</v>
       </c>
       <c r="M56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q56" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R56">
         <f>COUNTIFS(A:A,TRUE,$H:$H,TRUE)</f>
@@ -3759,7 +3828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" t="b">
         <v>1</v>
       </c>
@@ -3797,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="M57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q57" s="6" t="s">
         <v>16</v>
@@ -3826,7 +3895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" t="b">
         <v>1</v>
       </c>
@@ -3864,13 +3933,13 @@
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q58" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R58">
         <f>COUNTIFS(A:A,TRUE,$K:$K,TRUE)</f>
@@ -3893,7 +3962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" t="b">
         <v>0</v>
       </c>
@@ -3931,10 +4000,10 @@
         <v>0</v>
       </c>
       <c r="M59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q59" s="6" t="s">
         <v>19</v>
@@ -3960,7 +4029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" t="b">
         <v>1</v>
       </c>
@@ -3998,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="M60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N60" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q60" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R60">
         <f>COUNTIFS(A:A,TRUE,$I:$I,TRUE)</f>
@@ -4027,7 +4096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" t="b">
         <v>1</v>
       </c>
@@ -4065,10 +4134,10 @@
         <v>0</v>
       </c>
       <c r="M61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N61" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q61" s="6" t="s">
         <v>23</v>
@@ -4078,23 +4147,23 @@
         <v>263</v>
       </c>
       <c r="S61">
-        <f t="shared" ref="S61:V61" si="5">COUNTIF(B:B,TRUE)</f>
+        <f t="shared" ref="S61:V61" si="6">COUNTIF(B:B,TRUE)</f>
         <v>123</v>
       </c>
       <c r="T61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>282</v>
       </c>
       <c r="U61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>152</v>
       </c>
       <c r="V61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" t="b">
         <v>1</v>
       </c>
@@ -4132,60 +4201,60 @@
         <v>0</v>
       </c>
       <c r="M62" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N62" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A63" t="b">
+        <v>1</v>
+      </c>
+      <c r="B63" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="s">
+        <v>46</v>
+      </c>
+      <c r="N63" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q63" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A63" t="b">
-        <v>1</v>
-      </c>
-      <c r="B63" t="b">
-        <v>0</v>
-      </c>
-      <c r="C63" t="b">
-        <v>0</v>
-      </c>
-      <c r="D63" t="b">
-        <v>0</v>
-      </c>
-      <c r="E63" t="b">
-        <v>0</v>
-      </c>
-      <c r="F63" t="b">
-        <v>0</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="b">
-        <v>0</v>
-      </c>
-      <c r="K63" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63" t="b">
-        <v>0</v>
-      </c>
-      <c r="M63" t="s">
-        <v>48</v>
-      </c>
-      <c r="N63" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q63" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="R63">
         <f>COUNTIFS(A:A,TRUE,$N:$N,"Male")</f>
@@ -4208,7 +4277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" t="b">
         <v>1</v>
       </c>
@@ -4246,13 +4315,13 @@
         <v>0</v>
       </c>
       <c r="M64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N64" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q64" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R64">
         <f>COUNTIFS(A:A,TRUE,$N:$N,"Female")</f>
@@ -4313,13 +4382,13 @@
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N65" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q65" s="6" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="R65">
         <f>SUM(R63:R64)</f>
@@ -4380,13 +4449,13 @@
         <v>1</v>
       </c>
       <c r="M66" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q66" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.2">
@@ -4427,10 +4496,10 @@
         <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.2">
@@ -4471,10 +4540,10 @@
         <v>1</v>
       </c>
       <c r="M68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.2">
@@ -4515,10 +4584,10 @@
         <v>0</v>
       </c>
       <c r="M69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.2">
@@ -4559,13 +4628,13 @@
         <v>1</v>
       </c>
       <c r="M70" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.2">
@@ -4606,10 +4675,10 @@
         <v>1</v>
       </c>
       <c r="M71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N71" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R71" t="s">
         <v>0</v>
@@ -4665,10 +4734,10 @@
         <v>1</v>
       </c>
       <c r="M72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N72" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q72" s="6" t="s">
         <v>18</v>
@@ -4727,13 +4796,13 @@
         <v>0</v>
       </c>
       <c r="M73" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N73" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q73" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R73">
         <v>63</v>
@@ -4789,13 +4858,13 @@
         <v>0</v>
       </c>
       <c r="M74" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N74" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q74" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R74">
         <v>94</v>
@@ -4851,10 +4920,10 @@
         <v>0</v>
       </c>
       <c r="M75" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q75" s="6" t="s">
         <v>16</v>
@@ -4913,36 +4982,36 @@
         <v>1</v>
       </c>
       <c r="M76" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N76" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q76" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R76">
         <f>R58+R60</f>
         <v>25</v>
       </c>
       <c r="S76">
-        <f t="shared" ref="S76:V76" si="6">S58+S60</f>
+        <f t="shared" ref="S76:V76" si="7">S58+S60</f>
         <v>14</v>
       </c>
       <c r="T76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="U76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="V76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="W76" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.2">
@@ -4983,10 +5052,10 @@
         <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N77" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q77" s="6" t="s">
         <v>19</v>
@@ -5045,10 +5114,10 @@
         <v>0</v>
       </c>
       <c r="M78" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N78" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q78" s="6" t="s">
         <v>23</v>
@@ -5107,10 +5176,10 @@
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N79" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.2">
@@ -5151,13 +5220,13 @@
         <v>0</v>
       </c>
       <c r="M80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R80" s="3" t="s">
         <v>0</v>
@@ -5175,10 +5244,10 @@
         <v>4</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Z80" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AA80" t="s">
         <v>0</v>
@@ -5196,7 +5265,7 @@
         <v>4</v>
       </c>
       <c r="AF80" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.2">
@@ -5237,10 +5306,10 @@
         <v>0</v>
       </c>
       <c r="M81" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q81" s="6" t="s">
         <v>18</v>
@@ -5261,6 +5330,7 @@
         <v>47</v>
       </c>
       <c r="W81">
+        <f>R41</f>
         <v>71</v>
       </c>
       <c r="Z81" t="s">
@@ -5271,24 +5341,24 @@
         <v>141 (53.6%)</v>
       </c>
       <c r="AB81" t="str">
-        <f t="shared" ref="AB81:AF81" si="7">CONCATENATE(S81," (",TEXT(S92,"0.0%"),")")</f>
+        <f t="shared" ref="AB81:AF81" si="8">CONCATENATE(S81," (",TEXT(S92,"0.0%"),")")</f>
         <v>64 (52.0%)</v>
       </c>
       <c r="AC81" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>148 (52.5%)</v>
       </c>
       <c r="AD81" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>83 (54.6%)</v>
       </c>
       <c r="AE81" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>47 (56.6%)</v>
       </c>
       <c r="AF81" t="str">
-        <f t="shared" si="7"/>
-        <v>71 (5.2%)</v>
+        <f t="shared" si="8"/>
+        <v>71 (4.5%)</v>
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.2">
@@ -5329,13 +5399,13 @@
         <v>0</v>
       </c>
       <c r="M82" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q82" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R82">
         <v>63</v>
@@ -5353,34 +5423,35 @@
         <v>12</v>
       </c>
       <c r="W82">
-        <v>893</v>
+        <f>R42</f>
+        <v>931</v>
       </c>
       <c r="Z82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA82" t="str">
-        <f t="shared" ref="AA82:AF82" si="8">CONCATENATE(R82," (",TEXT(R93,"0.0%"),")")</f>
+        <f t="shared" ref="AA82:AF82" si="9">CONCATENATE(R82," (",TEXT(R93,"0.0%"),")")</f>
         <v>63 (24.0%)</v>
       </c>
       <c r="AB82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33 (26.8%)</v>
       </c>
       <c r="AC82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43 (15.2%)</v>
       </c>
       <c r="AD82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21 (13.8%)</v>
       </c>
       <c r="AE82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12 (14.5%)</v>
       </c>
       <c r="AF82" t="str">
-        <f t="shared" si="8"/>
-        <v>893 (64.9%)</v>
+        <f t="shared" si="9"/>
+        <v>931 (59.4%)</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.2">
@@ -5421,13 +5492,13 @@
         <v>0</v>
       </c>
       <c r="M83" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N83" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q83" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R83">
         <v>94</v>
@@ -5445,34 +5516,35 @@
         <v>18</v>
       </c>
       <c r="W83">
-        <v>350</v>
+        <f>R43</f>
+        <v>361</v>
       </c>
       <c r="Z83" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA83" t="str">
-        <f t="shared" ref="AA83:AF83" si="9">CONCATENATE(R83," (",TEXT(R94,"0.0%"),")")</f>
+        <f t="shared" ref="AA83:AF83" si="10">CONCATENATE(R83," (",TEXT(R94,"0.0%"),")")</f>
         <v>94 (35.7%)</v>
       </c>
       <c r="AB83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>48 (39.0%)</v>
       </c>
       <c r="AC83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>93 (33.0%)</v>
       </c>
       <c r="AD83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>40 (26.3%)</v>
       </c>
       <c r="AE83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18 (21.7%)</v>
       </c>
       <c r="AF83" t="str">
-        <f t="shared" si="9"/>
-        <v>350 (25.4%)</v>
+        <f t="shared" si="10"/>
+        <v>361 (23.0%)</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.2">
@@ -5513,10 +5585,10 @@
         <v>0</v>
       </c>
       <c r="M84" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N84" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q84" s="6" t="s">
         <v>16</v>
@@ -5537,34 +5609,35 @@
         <v>2</v>
       </c>
       <c r="W84">
+        <f>R44</f>
         <v>9</v>
       </c>
       <c r="Z84" t="s">
         <v>16</v>
       </c>
       <c r="AA84" t="str">
-        <f t="shared" ref="AA84:AF84" si="10">CONCATENATE(R84," (",TEXT(R95,"0.0%"),")")</f>
+        <f t="shared" ref="AA84:AF84" si="11">CONCATENATE(R84," (",TEXT(R95,"0.0%"),")")</f>
         <v>4 (1.5%)</v>
       </c>
       <c r="AB84" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2 (1.6%)</v>
       </c>
       <c r="AC84" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6 (2.1%)</v>
       </c>
       <c r="AD84" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3 (2.0%)</v>
       </c>
       <c r="AE84" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2 (2.4%)</v>
       </c>
       <c r="AF84" t="str">
-        <f t="shared" si="10"/>
-        <v>9 (0.7%)</v>
+        <f t="shared" si="11"/>
+        <v>9 (0.6%)</v>
       </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.2">
@@ -5605,13 +5678,13 @@
         <v>1</v>
       </c>
       <c r="M85" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q85" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R85">
         <v>25</v>
@@ -5629,34 +5702,35 @@
         <v>12</v>
       </c>
       <c r="W85">
-        <v>66</v>
+        <f>R46</f>
+        <v>69</v>
       </c>
       <c r="Z85" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA85" t="str">
-        <f t="shared" ref="AA85:AF85" si="11">CONCATENATE(R85," (",TEXT(R96,"0.0%"),")")</f>
+        <f t="shared" ref="AA85:AF85" si="12">CONCATENATE(R85," (",TEXT(R96,"0.0%"),")")</f>
         <v>25 (9.5%)</v>
       </c>
       <c r="AB85" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14 (11.4%)</v>
       </c>
       <c r="AC85" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>37 (13.1%)</v>
       </c>
       <c r="AD85" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>22 (14.5%)</v>
       </c>
       <c r="AE85" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12 (14.5%)</v>
       </c>
       <c r="AF85" t="str">
-        <f t="shared" si="11"/>
-        <v>66 (4.8%)</v>
+        <f t="shared" si="12"/>
+        <v>69 (4.4%)</v>
       </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.2">
@@ -5697,10 +5771,10 @@
         <v>1</v>
       </c>
       <c r="M86" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N86" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q86" s="6" t="s">
         <v>19</v>
@@ -5721,34 +5795,35 @@
         <v>19</v>
       </c>
       <c r="W86">
-        <v>113</v>
+        <f>R48</f>
+        <v>116</v>
       </c>
       <c r="Z86" t="s">
         <v>19</v>
       </c>
       <c r="AA86" t="str">
-        <f t="shared" ref="AA86:AF86" si="12">CONCATENATE(R86," (",TEXT(R97,"0.0%"),")")</f>
+        <f t="shared" ref="AA86:AF86" si="13">CONCATENATE(R86," (",TEXT(R97,"0.0%"),")")</f>
         <v>71 (27.0%)</v>
       </c>
       <c r="AB86" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>37 (30.1%)</v>
       </c>
       <c r="AC86" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>62 (22.0%)</v>
       </c>
       <c r="AD86" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>38 (25.0%)</v>
       </c>
       <c r="AE86" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19 (22.9%)</v>
       </c>
       <c r="AF86" t="str">
-        <f t="shared" si="12"/>
-        <v>113 (8.2%)</v>
+        <f t="shared" si="13"/>
+        <v>116 (7.4%)</v>
       </c>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.2">
@@ -5789,10 +5864,10 @@
         <v>1</v>
       </c>
       <c r="M87" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q87" s="6" t="s">
         <v>23</v>
@@ -5813,28 +5888,35 @@
         <v>83</v>
       </c>
       <c r="W87">
-        <v>1377</v>
+        <f>R49</f>
+        <v>1567</v>
       </c>
       <c r="Z87" t="s">
         <v>23</v>
       </c>
       <c r="AA87">
+        <f>R87</f>
         <v>263</v>
       </c>
       <c r="AB87">
+        <f t="shared" ref="AB87:AF87" si="14">S87</f>
         <v>123</v>
       </c>
       <c r="AC87">
+        <f t="shared" si="14"/>
         <v>282</v>
       </c>
       <c r="AD87">
+        <f t="shared" si="14"/>
         <v>152</v>
       </c>
       <c r="AE87">
+        <f t="shared" si="14"/>
         <v>83</v>
       </c>
       <c r="AF87">
-        <v>1377</v>
+        <f t="shared" si="14"/>
+        <v>1567</v>
       </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.2">
@@ -5875,10 +5957,10 @@
         <v>1</v>
       </c>
       <c r="M88" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N88" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.2">
@@ -5919,10 +6001,10 @@
         <v>0</v>
       </c>
       <c r="M89" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N89" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.2">
@@ -5963,10 +6045,10 @@
         <v>0</v>
       </c>
       <c r="M90" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N90" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.2">
@@ -6007,13 +6089,13 @@
         <v>1</v>
       </c>
       <c r="M91" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N91" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>0</v>
@@ -6031,7 +6113,7 @@
         <v>4</v>
       </c>
       <c r="W91" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.2">
@@ -6072,10 +6154,10 @@
         <v>1</v>
       </c>
       <c r="M92" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q92" s="6" t="s">
         <v>18</v>
@@ -6085,24 +6167,24 @@
         <v>0.53612167300380231</v>
       </c>
       <c r="S92">
-        <f t="shared" ref="S92:W92" si="13">S81/S$87</f>
+        <f t="shared" ref="S92:W92" si="15">S81/S$87</f>
         <v>0.52032520325203258</v>
       </c>
       <c r="T92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.52482269503546097</v>
       </c>
       <c r="U92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.54605263157894735</v>
       </c>
       <c r="V92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.5662650602409639</v>
       </c>
       <c r="W92">
-        <f t="shared" si="13"/>
-        <v>5.1561365286855482E-2</v>
+        <f t="shared" si="15"/>
+        <v>4.530950861518826E-2</v>
       </c>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.2">
@@ -6143,37 +6225,37 @@
         <v>0</v>
       </c>
       <c r="M93" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N93" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q93" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R93">
-        <f t="shared" ref="R93:W93" si="14">R82/R$87</f>
+        <f t="shared" ref="R93:W93" si="16">R82/R$87</f>
         <v>0.23954372623574144</v>
       </c>
       <c r="S93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.26829268292682928</v>
       </c>
       <c r="T93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.1524822695035461</v>
       </c>
       <c r="U93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.13815789473684212</v>
       </c>
       <c r="V93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.14457831325301204</v>
       </c>
       <c r="W93">
-        <f t="shared" si="14"/>
-        <v>0.64851125635439366</v>
+        <f t="shared" si="16"/>
+        <v>0.59412890874282065</v>
       </c>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.2">
@@ -6214,37 +6296,37 @@
         <v>0</v>
       </c>
       <c r="M94" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N94" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q94" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R94">
-        <f t="shared" ref="R94:W94" si="15">R83/R$87</f>
+        <f t="shared" ref="R94:W94" si="17">R83/R$87</f>
         <v>0.35741444866920152</v>
       </c>
       <c r="S94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.3902439024390244</v>
       </c>
       <c r="T94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.32978723404255317</v>
       </c>
       <c r="U94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.26315789473684209</v>
       </c>
       <c r="V94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.21686746987951808</v>
       </c>
       <c r="W94">
-        <f t="shared" si="15"/>
-        <v>0.25417574437182278</v>
+        <f t="shared" si="17"/>
+        <v>0.23037651563497127</v>
       </c>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.2">
@@ -6285,37 +6367,37 @@
         <v>0</v>
       </c>
       <c r="M95" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N95" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q95" s="6" t="s">
         <v>16</v>
       </c>
       <c r="R95">
-        <f t="shared" ref="R95:W95" si="16">R84/R$87</f>
+        <f t="shared" ref="R95:W95" si="18">R84/R$87</f>
         <v>1.5209125475285171E-2</v>
       </c>
       <c r="S95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.6260162601626018E-2</v>
       </c>
       <c r="T95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.1276595744680851E-2</v>
       </c>
       <c r="U95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.9736842105263157E-2</v>
       </c>
       <c r="V95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.4096385542168676E-2</v>
       </c>
       <c r="W95">
-        <f t="shared" si="16"/>
-        <v>6.5359477124183009E-3</v>
+        <f t="shared" si="18"/>
+        <v>5.7434588385449903E-3</v>
       </c>
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.2">
@@ -6356,37 +6438,37 @@
         <v>0</v>
       </c>
       <c r="M96" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q96" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R96">
-        <f t="shared" ref="R96:W96" si="17">R85/R$87</f>
+        <f t="shared" ref="R96:W96" si="19">R85/R$87</f>
         <v>9.5057034220532313E-2</v>
       </c>
       <c r="S96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.11382113821138211</v>
       </c>
       <c r="T96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.13120567375886524</v>
       </c>
       <c r="U96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.14473684210526316</v>
       </c>
       <c r="V96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.14457831325301204</v>
       </c>
       <c r="W96">
-        <f t="shared" si="17"/>
-        <v>4.793028322440087E-2</v>
+        <f t="shared" si="19"/>
+        <v>4.4033184428844928E-2</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.2">
@@ -6427,37 +6509,37 @@
         <v>0</v>
       </c>
       <c r="M97" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q97" s="6" t="s">
         <v>19</v>
       </c>
       <c r="R97">
-        <f t="shared" ref="R97:W97" si="18">R86/R$87</f>
+        <f t="shared" ref="R97:W97" si="20">R86/R$87</f>
         <v>0.26996197718631176</v>
       </c>
       <c r="S97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.30081300813008133</v>
       </c>
       <c r="T97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.21985815602836881</v>
       </c>
       <c r="U97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.25</v>
       </c>
       <c r="V97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.2289156626506024</v>
       </c>
       <c r="W97">
-        <f t="shared" si="18"/>
-        <v>8.2062454611474225E-2</v>
+        <f t="shared" si="20"/>
+        <v>7.4026802807913211E-2</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.2">
@@ -6504,22 +6586,22 @@
         <v>#N/A</v>
       </c>
       <c r="Q98" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R98" s="11">
-        <v>2.1620518817352649E-117</v>
+        <v>9.5384803784342357E-135</v>
       </c>
       <c r="S98" s="11">
-        <v>8.4508713462813728E-79</v>
+        <v>1.8148099871951319E-91</v>
       </c>
       <c r="T98" s="11">
-        <v>1.0754364664407823E-122</v>
+        <v>5.1493701783426509E-139</v>
       </c>
       <c r="U98" s="11">
-        <v>2.0011528857408781E-96</v>
+        <v>7.0033367545288261E-110</v>
       </c>
       <c r="V98" s="11">
-        <v>4.9783686465290341E-68</v>
+        <v>7.0846044069154312E-78</v>
       </c>
       <c r="W98" s="4"/>
     </row>
@@ -6561,20 +6643,20 @@
         <v>0</v>
       </c>
       <c r="M99" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N99" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q99" s="10"/>
       <c r="R99" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="S99" s="12">
         <v>0.94990609394228875</v>
       </c>
       <c r="T99" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U99" s="11">
         <v>0.82291647847959015</v>
@@ -6583,7 +6665,7 @@
         <v>8.1514407486379309E-2</v>
       </c>
       <c r="W99" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.2">
@@ -6624,16 +6706,16 @@
         <v>0</v>
       </c>
       <c r="M100" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N100" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="V100" s="11">
         <v>0.9846858561975288</v>
       </c>
       <c r="W100" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.2">
@@ -6674,13 +6756,13 @@
         <v>0</v>
       </c>
       <c r="M101" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N101" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q101" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.2">
@@ -6721,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="M102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N102" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R102" t="s">
         <v>67</v>
       </c>
-      <c r="R102" t="s">
-        <v>70</v>
-      </c>
       <c r="S102" t="s">
+        <v>60</v>
+      </c>
+      <c r="T102" t="s">
         <v>63</v>
-      </c>
-      <c r="T102" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.2">
@@ -6777,23 +6859,23 @@
         <v>1</v>
       </c>
       <c r="M103" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N103" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q103" t="s">
         <v>18</v>
       </c>
       <c r="R103">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="S103">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="T103">
         <f>S103+R103</f>
-        <v>289</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.2">
@@ -6834,23 +6916,23 @@
         <v>0</v>
       </c>
       <c r="M104" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N104" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q104" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R104">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="S104">
-        <v>43</v>
+        <v>931</v>
       </c>
       <c r="T104">
-        <f t="shared" ref="T104:T109" si="19">S104+R104</f>
-        <v>106</v>
+        <f t="shared" ref="T104:T109" si="21">S104+R104</f>
+        <v>943</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.2">
@@ -6891,23 +6973,23 @@
         <v>0</v>
       </c>
       <c r="M105" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N105" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q105" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R105">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="S105">
-        <v>93</v>
+        <v>361</v>
       </c>
       <c r="T105">
-        <f t="shared" si="19"/>
-        <v>187</v>
+        <f t="shared" si="21"/>
+        <v>379</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.2">
@@ -6948,23 +7030,23 @@
         <v>0</v>
       </c>
       <c r="M106" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N106" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q106" t="s">
         <v>16</v>
       </c>
       <c r="R106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S106">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T106">
-        <f t="shared" si="19"/>
-        <v>10</v>
+        <f t="shared" si="21"/>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.2">
@@ -7005,23 +7087,23 @@
         <v>0</v>
       </c>
       <c r="M107" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N107" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q107" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R107">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="S107">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="T107">
-        <f t="shared" si="19"/>
-        <v>62</v>
+        <f t="shared" si="21"/>
+        <v>81</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.2">
@@ -7062,23 +7144,23 @@
         <v>0</v>
       </c>
       <c r="M108" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N108" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q108" t="s">
         <v>19</v>
       </c>
       <c r="R108">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="S108">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="T108">
-        <f t="shared" si="19"/>
-        <v>133</v>
+        <f t="shared" si="21"/>
+        <v>135</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.2">
@@ -7119,23 +7201,23 @@
         <v>1</v>
       </c>
       <c r="M109" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N109" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q109" t="s">
         <v>23</v>
       </c>
       <c r="R109">
-        <v>263</v>
+        <v>83</v>
       </c>
       <c r="S109">
-        <v>282</v>
+        <v>1567</v>
       </c>
       <c r="T109">
-        <f t="shared" si="19"/>
-        <v>545</v>
+        <f t="shared" si="21"/>
+        <v>1650</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.2">
@@ -7176,10 +7258,10 @@
         <v>0</v>
       </c>
       <c r="M110" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N110" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.2">
@@ -7220,19 +7302,19 @@
         <v>0</v>
       </c>
       <c r="M111" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N111" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q111" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R111" t="s">
         <v>0</v>
       </c>
       <c r="S111" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.2">
@@ -7273,21 +7355,21 @@
         <v>0</v>
       </c>
       <c r="M112" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N112" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q112" t="s">
         <v>18</v>
       </c>
       <c r="R112">
         <f>SUM((R$109*$T103)/$T$109)</f>
-        <v>139.46238532110092</v>
+        <v>5.9357575757575756</v>
       </c>
       <c r="S112">
         <f>SUM((S$109*$T103)/$T$109)</f>
-        <v>149.53761467889908</v>
+        <v>112.06424242424242</v>
       </c>
     </row>
     <row r="113" spans="1:32" x14ac:dyDescent="0.2">
@@ -7328,21 +7410,21 @@
         <v>0</v>
       </c>
       <c r="M113" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N113" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q113" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R113">
         <f>SUM((R$109*$T104)/$T$109)</f>
-        <v>51.152293577981652</v>
+        <v>47.435757575757577</v>
       </c>
       <c r="S113">
-        <f t="shared" ref="S113:S117" si="20">SUM((S$109*$T104)/$T$109)</f>
-        <v>54.847706422018348</v>
+        <f t="shared" ref="S113:S117" si="22">SUM((S$109*$T104)/$T$109)</f>
+        <v>895.56424242424248</v>
       </c>
     </row>
     <row r="114" spans="1:32" x14ac:dyDescent="0.2">
@@ -7383,21 +7465,21 @@
         <v>0</v>
       </c>
       <c r="M114" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N114" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R114">
-        <f t="shared" ref="R114" si="21">SUM((R$109*$T105)/$T$109)</f>
-        <v>90.240366972477062</v>
+        <f t="shared" ref="R114" si="23">SUM((R$109*$T105)/$T$109)</f>
+        <v>19.064848484848486</v>
       </c>
       <c r="S114">
-        <f t="shared" si="20"/>
-        <v>96.759633027522938</v>
+        <f t="shared" si="22"/>
+        <v>359.93515151515152</v>
       </c>
     </row>
     <row r="115" spans="1:32" x14ac:dyDescent="0.2">
@@ -7438,21 +7520,21 @@
         <v>0</v>
       </c>
       <c r="M115" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N115" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q115" t="s">
         <v>16</v>
       </c>
       <c r="R115">
-        <f t="shared" ref="R115" si="22">SUM((R$109*$T106)/$T$109)</f>
-        <v>4.8256880733944953</v>
+        <f t="shared" ref="R115" si="24">SUM((R$109*$T106)/$T$109)</f>
+        <v>0.55333333333333334</v>
       </c>
       <c r="S115">
-        <f t="shared" si="20"/>
-        <v>5.1743119266055047</v>
+        <f t="shared" si="22"/>
+        <v>10.446666666666667</v>
       </c>
     </row>
     <row r="116" spans="1:32" x14ac:dyDescent="0.2">
@@ -7493,21 +7575,21 @@
         <v>0</v>
       </c>
       <c r="M116" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N116" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q116" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R116">
-        <f t="shared" ref="R116" si="23">SUM((R$109*$T107)/$T$109)</f>
-        <v>29.91926605504587</v>
+        <f t="shared" ref="R116" si="25">SUM((R$109*$T107)/$T$109)</f>
+        <v>4.0745454545454542</v>
       </c>
       <c r="S116">
-        <f t="shared" si="20"/>
-        <v>32.080733944954126</v>
+        <f t="shared" si="22"/>
+        <v>76.925454545454542</v>
       </c>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.2">
@@ -7548,21 +7630,21 @@
         <v>0</v>
       </c>
       <c r="M117" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q117" t="s">
         <v>19</v>
       </c>
       <c r="R117">
-        <f t="shared" ref="R117" si="24">SUM((R$109*$T108)/$T$109)</f>
-        <v>64.181651376146789</v>
+        <f t="shared" ref="R117" si="26">SUM((R$109*$T108)/$T$109)</f>
+        <v>6.790909090909091</v>
       </c>
       <c r="S117">
-        <f t="shared" si="20"/>
-        <v>68.818348623853211</v>
+        <f t="shared" si="22"/>
+        <v>128.20909090909092</v>
       </c>
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.2">
@@ -7603,10 +7685,10 @@
         <v>0</v>
       </c>
       <c r="M118" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N118" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.2">
@@ -7647,10 +7729,10 @@
         <v>1</v>
       </c>
       <c r="M119" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N119" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:32" x14ac:dyDescent="0.2">
@@ -7691,23 +7773,23 @@
         <v>0</v>
       </c>
       <c r="M120" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N120" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q120" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R120">
         <f>_xlfn.CHISQ.TEST(R103:S108,R112:S117)</f>
-        <v>0.11415906027864048</v>
+        <v>7.0846044069154312E-78</v>
       </c>
       <c r="U120" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="V120" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" spans="1:32" x14ac:dyDescent="0.2">
@@ -7748,14 +7830,14 @@
         <v>0</v>
       </c>
       <c r="M121" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N121" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U121" s="13"/>
       <c r="V121" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:32" x14ac:dyDescent="0.2">
@@ -7796,10 +7878,10 @@
         <v>0</v>
       </c>
       <c r="M122" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N122" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.2">
@@ -7840,10 +7922,10 @@
         <v>1</v>
       </c>
       <c r="M123" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.2">
@@ -7884,10 +7966,10 @@
         <v>0</v>
       </c>
       <c r="M124" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R124" s="3" t="s">
         <v>0</v>
@@ -7905,7 +7987,7 @@
         <v>4</v>
       </c>
       <c r="W124" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AA124" t="s">
         <v>0</v>
@@ -7923,7 +8005,7 @@
         <v>4</v>
       </c>
       <c r="AF124" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.2">
@@ -7964,13 +8046,13 @@
         <v>0</v>
       </c>
       <c r="M125" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N125" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q125" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="Q125" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="R125">
         <v>62</v>
@@ -7991,30 +8073,30 @@
         <v>1231</v>
       </c>
       <c r="Z125" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AA125" t="str">
         <f>CONCATENATE(R125," (",TEXT(R148,"0.0%"),")")</f>
         <v>62 (24.1%)</v>
       </c>
       <c r="AB125" t="str">
-        <f t="shared" ref="AB125:AF125" si="25">CONCATENATE(S125," (",TEXT(S148,"0.0%"),")")</f>
+        <f t="shared" ref="AB125:AF125" si="27">CONCATENATE(S125," (",TEXT(S148,"0.0%"),")")</f>
         <v>29 (24.2%)</v>
       </c>
       <c r="AC125" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>76 (27.5%)</v>
       </c>
       <c r="AD125" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>36 (24.5%)</v>
       </c>
       <c r="AE125" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>13 (16.3%)</v>
       </c>
       <c r="AF125" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1231 (78.5%)</v>
       </c>
     </row>
@@ -8056,13 +8138,13 @@
         <v>0</v>
       </c>
       <c r="M126" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N126" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q126" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R126">
         <v>195</v>
@@ -8083,30 +8165,30 @@
         <v>337</v>
       </c>
       <c r="Z126" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AA126" t="str">
         <f>CONCATENATE(R126," (",TEXT(R149,"0.0%"),")")</f>
         <v>195 (75.9%)</v>
       </c>
       <c r="AB126" t="str">
-        <f t="shared" ref="AB126:AF126" si="26">CONCATENATE(S126," (",TEXT(S149,"0.0%"),")")</f>
+        <f t="shared" ref="AB126:AF126" si="28">CONCATENATE(S126," (",TEXT(S149,"0.0%"),")")</f>
         <v>91 (75.8%)</v>
       </c>
       <c r="AC126" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>200 (72.5%)</v>
       </c>
       <c r="AD126" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>111 (75.5%)</v>
       </c>
       <c r="AE126" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>67 (83.8%)</v>
       </c>
       <c r="AF126" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>337 (21.5%)</v>
       </c>
     </row>
@@ -8148,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="M127" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N127" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q127" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R127">
         <v>257</v>
@@ -8175,7 +8257,7 @@
         <v>1568</v>
       </c>
       <c r="Z127" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AA127">
         <v>257</v>
@@ -8234,13 +8316,13 @@
         <v>0</v>
       </c>
       <c r="M128" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N128" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q128" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R128" s="11">
         <v>9.7468507507838615E-71</v>
@@ -8297,20 +8379,20 @@
         <v>0</v>
       </c>
       <c r="M129" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N129" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q129" s="10"/>
       <c r="R129" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="S129" s="12">
         <v>0.99289134486141051</v>
       </c>
       <c r="T129" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U129" s="11">
         <v>0.49890272698559357</v>
@@ -8319,7 +8401,7 @@
         <v>0.17810792037324499</v>
       </c>
       <c r="W129" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.2">
@@ -8360,16 +8442,16 @@
         <v>1</v>
       </c>
       <c r="M130" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N130" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="V130" s="11">
         <v>0.14943377270511676</v>
       </c>
       <c r="W130" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.2">
@@ -8410,10 +8492,10 @@
         <v>0</v>
       </c>
       <c r="M131" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N131" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.2">
@@ -8454,10 +8536,10 @@
         <v>1</v>
       </c>
       <c r="M132" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N132" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.2">
@@ -8498,10 +8580,10 @@
         <v>0</v>
       </c>
       <c r="M133" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N133" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.2">
@@ -8542,13 +8624,13 @@
         <v>0</v>
       </c>
       <c r="M134" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N134" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q134" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.2">
@@ -8589,22 +8671,22 @@
         <v>0</v>
       </c>
       <c r="M135" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N135" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q135" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R135" t="s">
         <v>67</v>
       </c>
-      <c r="R135" t="s">
-        <v>70</v>
-      </c>
       <c r="S135" t="s">
+        <v>60</v>
+      </c>
+      <c r="T135" t="s">
         <v>63</v>
-      </c>
-      <c r="T135" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.2">
@@ -8645,13 +8727,13 @@
         <v>0</v>
       </c>
       <c r="M136" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N136" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q136" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="Q136" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="R136">
         <v>29</v>
@@ -8702,13 +8784,13 @@
         <v>1</v>
       </c>
       <c r="M137" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N137" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q137" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R137">
         <v>91</v>
@@ -8759,13 +8841,13 @@
         <v>1</v>
       </c>
       <c r="M138" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N138" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q138" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R138">
         <v>120</v>
@@ -8816,10 +8898,10 @@
         <v>0</v>
       </c>
       <c r="M139" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N139" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.2">
@@ -8860,19 +8942,19 @@
         <v>0</v>
       </c>
       <c r="M140" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N140" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q140" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R140" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="S140" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.2">
@@ -8913,13 +8995,13 @@
         <v>0</v>
       </c>
       <c r="M141" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N141" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q141" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R141">
         <f>SUM((R$138*$T136)/$T$138)</f>
@@ -8968,13 +9050,13 @@
         <v>0</v>
       </c>
       <c r="M142" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N142" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q142" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R142">
         <f>SUM((R$138*$T137)/$T$138)</f>
@@ -9023,10 +9105,10 @@
         <v>0</v>
       </c>
       <c r="M143" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N143" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q143" s="3"/>
     </row>
@@ -9068,13 +9150,13 @@
         <v>0</v>
       </c>
       <c r="M144" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N144" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q144" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R144">
         <f>_xlfn.CHISQ.TEST(R136:S137,R141:S142)</f>
@@ -9120,10 +9202,10 @@
         <v>0</v>
       </c>
       <c r="M145" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N145" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U145" s="13"/>
     </row>
@@ -9165,10 +9247,10 @@
         <v>0</v>
       </c>
       <c r="M146" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N146" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.2">
@@ -9209,10 +9291,10 @@
         <v>0</v>
       </c>
       <c r="M147" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N147" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R147" s="3" t="s">
         <v>0</v>
@@ -9230,7 +9312,7 @@
         <v>4</v>
       </c>
       <c r="W147" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.2">
@@ -9271,36 +9353,36 @@
         <v>1</v>
       </c>
       <c r="M148" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N148" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q148" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="Q148" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="R148">
         <f>R125/R$127</f>
         <v>0.24124513618677043</v>
       </c>
       <c r="S148">
-        <f t="shared" ref="S148:W148" si="27">S125/S$127</f>
+        <f t="shared" ref="S148:W148" si="29">S125/S$127</f>
         <v>0.24166666666666667</v>
       </c>
       <c r="T148">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.27536231884057971</v>
       </c>
       <c r="U148">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.24489795918367346</v>
       </c>
       <c r="V148">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.16250000000000001</v>
       </c>
       <c r="W148">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.78507653061224492</v>
       </c>
     </row>
@@ -9342,36 +9424,36 @@
         <v>0</v>
       </c>
       <c r="M149" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N149" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q149" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R149">
-        <f t="shared" ref="R149:W149" si="28">R126/R$127</f>
+        <f t="shared" ref="R149:W149" si="30">R126/R$127</f>
         <v>0.75875486381322954</v>
       </c>
       <c r="S149">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.7583333333333333</v>
       </c>
       <c r="T149">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.72463768115942029</v>
       </c>
       <c r="U149">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.75510204081632648</v>
       </c>
       <c r="V149">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.83750000000000002</v>
       </c>
       <c r="W149">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.21492346938775511</v>
       </c>
     </row>
@@ -9413,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="M150" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N150" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.2">
@@ -9457,10 +9539,10 @@
         <v>0</v>
       </c>
       <c r="M151" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N151" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.2">
@@ -9501,10 +9583,10 @@
         <v>0</v>
       </c>
       <c r="M152" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N152" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.2">
@@ -9545,10 +9627,10 @@
         <v>1</v>
       </c>
       <c r="M153" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N153" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.2">
@@ -9589,10 +9671,10 @@
         <v>0</v>
       </c>
       <c r="M154" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N154" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.2">
@@ -9633,10 +9715,10 @@
         <v>0</v>
       </c>
       <c r="M155" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N155" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.2">
@@ -9677,10 +9759,10 @@
         <v>0</v>
       </c>
       <c r="M156" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N156" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.2">
@@ -9721,10 +9803,10 @@
         <v>0</v>
       </c>
       <c r="M157" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N157" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.2">
@@ -9765,10 +9847,10 @@
         <v>0</v>
       </c>
       <c r="M158" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N158" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.2">
@@ -9809,10 +9891,10 @@
         <v>0</v>
       </c>
       <c r="M159" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N159" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.2">
@@ -9853,10 +9935,10 @@
         <v>0</v>
       </c>
       <c r="M160" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N160" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
@@ -9897,10 +9979,10 @@
         <v>1</v>
       </c>
       <c r="M161" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N161" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
@@ -9941,10 +10023,10 @@
         <v>0</v>
       </c>
       <c r="M162" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N162" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
@@ -9985,10 +10067,10 @@
         <v>0</v>
       </c>
       <c r="M163" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N163" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
@@ -10029,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="M164" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N164" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
@@ -10073,10 +10155,10 @@
         <v>0</v>
       </c>
       <c r="M165" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N165" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
@@ -10117,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="M166" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N166" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
@@ -10161,10 +10243,10 @@
         <v>0</v>
       </c>
       <c r="M167" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N167" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
@@ -10205,10 +10287,10 @@
         <v>0</v>
       </c>
       <c r="M168" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N168" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
@@ -10249,10 +10331,10 @@
         <v>0</v>
       </c>
       <c r="M169" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N169" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
@@ -10293,10 +10375,10 @@
         <v>0</v>
       </c>
       <c r="M170" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N170" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
@@ -10337,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="M171" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N171" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
@@ -10381,10 +10463,10 @@
         <v>0</v>
       </c>
       <c r="M172" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N172" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
@@ -10425,10 +10507,10 @@
         <v>0</v>
       </c>
       <c r="M173" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N173" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
@@ -10469,10 +10551,10 @@
         <v>1</v>
       </c>
       <c r="M174" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N174" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
@@ -10513,10 +10595,10 @@
         <v>0</v>
       </c>
       <c r="M175" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N175" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
@@ -10557,10 +10639,10 @@
         <v>0</v>
       </c>
       <c r="M176" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N176" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
@@ -10601,10 +10683,10 @@
         <v>1</v>
       </c>
       <c r="M177" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N177" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
@@ -10645,10 +10727,10 @@
         <v>0</v>
       </c>
       <c r="M178" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N178" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
@@ -10689,10 +10771,10 @@
         <v>0</v>
       </c>
       <c r="M179" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N179" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
@@ -10733,10 +10815,10 @@
         <v>0</v>
       </c>
       <c r="M180" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N180" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
@@ -10777,10 +10859,10 @@
         <v>0</v>
       </c>
       <c r="M181" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N181" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
@@ -10821,10 +10903,10 @@
         <v>1</v>
       </c>
       <c r="M182" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N182" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
@@ -10865,10 +10947,10 @@
         <v>0</v>
       </c>
       <c r="M183" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N183" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
@@ -10909,10 +10991,10 @@
         <v>0</v>
       </c>
       <c r="M184" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N184" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
@@ -10953,10 +11035,10 @@
         <v>0</v>
       </c>
       <c r="M185" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N185" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
@@ -10997,10 +11079,10 @@
         <v>0</v>
       </c>
       <c r="M186" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N186" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
@@ -11041,10 +11123,10 @@
         <v>0</v>
       </c>
       <c r="M187" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N187" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
@@ -11085,10 +11167,10 @@
         <v>0</v>
       </c>
       <c r="M188" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N188" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
@@ -11129,10 +11211,10 @@
         <v>1</v>
       </c>
       <c r="M189" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N189" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
@@ -11173,10 +11255,10 @@
         <v>0</v>
       </c>
       <c r="M190" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N190" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
@@ -11217,10 +11299,10 @@
         <v>0</v>
       </c>
       <c r="M191" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N191" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
@@ -11261,10 +11343,10 @@
         <v>0</v>
       </c>
       <c r="M192" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N192" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
@@ -11349,10 +11431,10 @@
         <v>0</v>
       </c>
       <c r="M194" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N194" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
@@ -11393,10 +11475,10 @@
         <v>0</v>
       </c>
       <c r="M195" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N195" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
@@ -11437,10 +11519,10 @@
         <v>0</v>
       </c>
       <c r="M196" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N196" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
@@ -11481,10 +11563,10 @@
         <v>0</v>
       </c>
       <c r="M197" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N197" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
@@ -11525,10 +11607,10 @@
         <v>0</v>
       </c>
       <c r="M198" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N198" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
@@ -11569,10 +11651,10 @@
         <v>0</v>
       </c>
       <c r="M199" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N199" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
@@ -11613,10 +11695,10 @@
         <v>1</v>
       </c>
       <c r="M200" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N200" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
@@ -11657,10 +11739,10 @@
         <v>0</v>
       </c>
       <c r="M201" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N201" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
@@ -11701,10 +11783,10 @@
         <v>0</v>
       </c>
       <c r="M202" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N202" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
@@ -11745,10 +11827,10 @@
         <v>0</v>
       </c>
       <c r="M203" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N203" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
@@ -11789,10 +11871,10 @@
         <v>0</v>
       </c>
       <c r="M204" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N204" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
@@ -11833,10 +11915,10 @@
         <v>1</v>
       </c>
       <c r="M205" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N205" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
@@ -11877,10 +11959,10 @@
         <v>0</v>
       </c>
       <c r="M206" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N206" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
@@ -11921,10 +12003,10 @@
         <v>0</v>
       </c>
       <c r="M207" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N207" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
@@ -11965,10 +12047,10 @@
         <v>1</v>
       </c>
       <c r="M208" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N208" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
@@ -12009,10 +12091,10 @@
         <v>0</v>
       </c>
       <c r="M209" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N209" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
@@ -12053,10 +12135,10 @@
         <v>0</v>
       </c>
       <c r="M210" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N210" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
@@ -12097,10 +12179,10 @@
         <v>0</v>
       </c>
       <c r="M211" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N211" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
@@ -12141,10 +12223,10 @@
         <v>1</v>
       </c>
       <c r="M212" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N212" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
@@ -12185,10 +12267,10 @@
         <v>0</v>
       </c>
       <c r="M213" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N213" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
@@ -12229,10 +12311,10 @@
         <v>0</v>
       </c>
       <c r="M214" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N214" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
@@ -12273,10 +12355,10 @@
         <v>0</v>
       </c>
       <c r="M215" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N215" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
@@ -12317,10 +12399,10 @@
         <v>1</v>
       </c>
       <c r="M216" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N216" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
@@ -12361,10 +12443,10 @@
         <v>0</v>
       </c>
       <c r="M217" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N217" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
@@ -12405,10 +12487,10 @@
         <v>1</v>
       </c>
       <c r="M218" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N218" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
@@ -12449,10 +12531,10 @@
         <v>0</v>
       </c>
       <c r="M219" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N219" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
@@ -12493,10 +12575,10 @@
         <v>1</v>
       </c>
       <c r="M220" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N220" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
@@ -12537,10 +12619,10 @@
         <v>0</v>
       </c>
       <c r="M221" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N221" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
@@ -12581,10 +12663,10 @@
         <v>0</v>
       </c>
       <c r="M222" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N222" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
@@ -12625,10 +12707,10 @@
         <v>0</v>
       </c>
       <c r="M223" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N223" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
@@ -12669,10 +12751,10 @@
         <v>0</v>
       </c>
       <c r="M224" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N224" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
@@ -12713,10 +12795,10 @@
         <v>0</v>
       </c>
       <c r="M225" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N225" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
@@ -12757,10 +12839,10 @@
         <v>1</v>
       </c>
       <c r="M226" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N226" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.2">
@@ -12801,10 +12883,10 @@
         <v>0</v>
       </c>
       <c r="M227" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N227" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
@@ -12845,10 +12927,10 @@
         <v>0</v>
       </c>
       <c r="M228" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N228" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
@@ -12889,10 +12971,10 @@
         <v>0</v>
       </c>
       <c r="M229" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N229" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
@@ -12933,10 +13015,10 @@
         <v>0</v>
       </c>
       <c r="M230" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N230" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
@@ -12977,10 +13059,10 @@
         <v>1</v>
       </c>
       <c r="M231" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N231" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
@@ -13021,10 +13103,10 @@
         <v>0</v>
       </c>
       <c r="M232" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N232" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
@@ -13065,10 +13147,10 @@
         <v>0</v>
       </c>
       <c r="M233" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N233" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
@@ -13109,10 +13191,10 @@
         <v>0</v>
       </c>
       <c r="M234" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N234" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
@@ -13153,10 +13235,10 @@
         <v>0</v>
       </c>
       <c r="M235" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N235" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
@@ -13197,10 +13279,10 @@
         <v>1</v>
       </c>
       <c r="M236" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N236" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
@@ -13241,10 +13323,10 @@
         <v>0</v>
       </c>
       <c r="M237" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N237" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
@@ -13285,10 +13367,10 @@
         <v>0</v>
       </c>
       <c r="M238" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N238" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
@@ -13329,10 +13411,10 @@
         <v>0</v>
       </c>
       <c r="M239" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N239" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
@@ -13373,10 +13455,10 @@
         <v>1</v>
       </c>
       <c r="M240" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N240" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
@@ -13417,10 +13499,10 @@
         <v>0</v>
       </c>
       <c r="M241" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N241" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
@@ -13461,10 +13543,10 @@
         <v>0</v>
       </c>
       <c r="M242" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N242" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
@@ -13505,10 +13587,10 @@
         <v>0</v>
       </c>
       <c r="M243" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N243" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
@@ -13549,10 +13631,10 @@
         <v>0</v>
       </c>
       <c r="M244" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N244" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
@@ -13593,10 +13675,10 @@
         <v>1</v>
       </c>
       <c r="M245" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N245" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
@@ -13637,10 +13719,10 @@
         <v>0</v>
       </c>
       <c r="M246" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N246" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
@@ -13681,10 +13763,10 @@
         <v>0</v>
       </c>
       <c r="M247" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N247" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
@@ -13725,10 +13807,10 @@
         <v>0</v>
       </c>
       <c r="M248" t="s">
+        <v>48</v>
+      </c>
+      <c r="N248" t="s">
         <v>50</v>
-      </c>
-      <c r="N248" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
@@ -13769,10 +13851,10 @@
         <v>0</v>
       </c>
       <c r="M249" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N249" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.2">
@@ -13813,10 +13895,10 @@
         <v>0</v>
       </c>
       <c r="M250" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N250" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
@@ -13857,10 +13939,10 @@
         <v>0</v>
       </c>
       <c r="M251" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N251" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
@@ -13901,10 +13983,10 @@
         <v>0</v>
       </c>
       <c r="M252" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N252" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
@@ -13945,10 +14027,10 @@
         <v>0</v>
       </c>
       <c r="M253" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N253" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
@@ -13989,10 +14071,10 @@
         <v>0</v>
       </c>
       <c r="M254" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N254" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
@@ -14033,10 +14115,10 @@
         <v>0</v>
       </c>
       <c r="M255" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N255" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
@@ -14077,10 +14159,10 @@
         <v>1</v>
       </c>
       <c r="M256" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N256" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
@@ -14121,10 +14203,10 @@
         <v>1</v>
       </c>
       <c r="M257" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N257" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
@@ -14165,10 +14247,10 @@
         <v>0</v>
       </c>
       <c r="M258" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N258" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
@@ -14209,10 +14291,10 @@
         <v>0</v>
       </c>
       <c r="M259" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N259" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
@@ -14253,10 +14335,10 @@
         <v>1</v>
       </c>
       <c r="M260" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N260" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.2">
@@ -14297,10 +14379,10 @@
         <v>0</v>
       </c>
       <c r="M261" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N261" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
@@ -14341,10 +14423,10 @@
         <v>0</v>
       </c>
       <c r="M262" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N262" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.2">
@@ -14385,10 +14467,10 @@
         <v>0</v>
       </c>
       <c r="M263" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N263" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.2">
@@ -14429,10 +14511,10 @@
         <v>0</v>
       </c>
       <c r="M264" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N264" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.2">
@@ -14473,10 +14555,10 @@
         <v>0</v>
       </c>
       <c r="M265" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N265" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.2">
@@ -14517,10 +14599,10 @@
         <v>0</v>
       </c>
       <c r="M266" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N266" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.2">
@@ -14561,10 +14643,10 @@
         <v>0</v>
       </c>
       <c r="M267" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N267" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.2">
@@ -14605,10 +14687,10 @@
         <v>1</v>
       </c>
       <c r="M268" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N268" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.2">
@@ -14649,10 +14731,10 @@
         <v>1</v>
       </c>
       <c r="M269" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N269" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.2">
@@ -14693,10 +14775,10 @@
         <v>1</v>
       </c>
       <c r="M270" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N270" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.2">
@@ -14737,10 +14819,10 @@
         <v>0</v>
       </c>
       <c r="M271" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N271" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.2">
@@ -14781,10 +14863,10 @@
         <v>0</v>
       </c>
       <c r="M272" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N272" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.2">
@@ -14825,10 +14907,10 @@
         <v>0</v>
       </c>
       <c r="M273" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N273" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.2">
@@ -14869,10 +14951,10 @@
         <v>0</v>
       </c>
       <c r="M274" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N274" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.2">
@@ -14913,10 +14995,10 @@
         <v>1</v>
       </c>
       <c r="M275" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N275" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.2">
@@ -14957,10 +15039,10 @@
         <v>0</v>
       </c>
       <c r="M276" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N276" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.2">
@@ -15001,10 +15083,10 @@
         <v>0</v>
       </c>
       <c r="M277" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N277" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.2">
@@ -15045,10 +15127,10 @@
         <v>0</v>
       </c>
       <c r="M278" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N278" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.2">
@@ -15089,10 +15171,10 @@
         <v>0</v>
       </c>
       <c r="M279" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N279" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.2">
@@ -15133,10 +15215,10 @@
         <v>0</v>
       </c>
       <c r="M280" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N280" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.2">
@@ -15177,10 +15259,10 @@
         <v>0</v>
       </c>
       <c r="M281" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N281" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.2">
@@ -15221,10 +15303,10 @@
         <v>0</v>
       </c>
       <c r="M282" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N282" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.2">
@@ -15265,10 +15347,10 @@
         <v>0</v>
       </c>
       <c r="M283" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N283" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.2">
@@ -15309,10 +15391,10 @@
         <v>1</v>
       </c>
       <c r="M284" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N284" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.2">
@@ -15353,10 +15435,10 @@
         <v>1</v>
       </c>
       <c r="M285" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N285" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.2">
@@ -15397,10 +15479,10 @@
         <v>0</v>
       </c>
       <c r="M286" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N286" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.2">
@@ -15441,10 +15523,10 @@
         <v>1</v>
       </c>
       <c r="M287" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N287" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.2">
@@ -15485,10 +15567,10 @@
         <v>1</v>
       </c>
       <c r="M288" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N288" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.2">
@@ -15529,10 +15611,10 @@
         <v>1</v>
       </c>
       <c r="M289" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N289" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.2">
@@ -15573,10 +15655,10 @@
         <v>1</v>
       </c>
       <c r="M290" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N290" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.2">
@@ -15617,10 +15699,10 @@
         <v>1</v>
       </c>
       <c r="M291" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N291" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.2">
@@ -15661,10 +15743,10 @@
         <v>1</v>
       </c>
       <c r="M292" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N292" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.2">
@@ -15705,10 +15787,10 @@
         <v>1</v>
       </c>
       <c r="M293" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N293" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.2">
@@ -15749,10 +15831,10 @@
         <v>0</v>
       </c>
       <c r="M294" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N294" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.2">
@@ -15793,10 +15875,10 @@
         <v>0</v>
       </c>
       <c r="M295" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N295" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.2">
@@ -15837,10 +15919,10 @@
         <v>1</v>
       </c>
       <c r="M296" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N296" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.2">
@@ -15881,10 +15963,10 @@
         <v>0</v>
       </c>
       <c r="M297" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N297" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.2">
@@ -15925,10 +16007,10 @@
         <v>0</v>
       </c>
       <c r="M298" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N298" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.2">
@@ -15969,10 +16051,10 @@
         <v>0</v>
       </c>
       <c r="M299" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N299" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.2">
@@ -16013,10 +16095,10 @@
         <v>0</v>
       </c>
       <c r="M300" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N300" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.2">
@@ -16057,10 +16139,10 @@
         <v>0</v>
       </c>
       <c r="M301" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N301" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.2">
@@ -16101,10 +16183,10 @@
         <v>0</v>
       </c>
       <c r="M302" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N302" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.2">
@@ -16145,10 +16227,10 @@
         <v>0</v>
       </c>
       <c r="M303" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N303" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.2">
@@ -16189,10 +16271,10 @@
         <v>0</v>
       </c>
       <c r="M304" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N304" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.2">
@@ -16233,10 +16315,10 @@
         <v>0</v>
       </c>
       <c r="M305" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N305" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.2">
@@ -16277,10 +16359,10 @@
         <v>0</v>
       </c>
       <c r="M306" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N306" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.2">
@@ -16321,10 +16403,10 @@
         <v>0</v>
       </c>
       <c r="M307" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N307" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.2">
@@ -16365,10 +16447,10 @@
         <v>1</v>
       </c>
       <c r="M308" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N308" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.2">
@@ -16409,10 +16491,10 @@
         <v>1</v>
       </c>
       <c r="M309" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N309" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.2">
@@ -16453,10 +16535,10 @@
         <v>0</v>
       </c>
       <c r="M310" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N310" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.2">
@@ -16497,10 +16579,10 @@
         <v>0</v>
       </c>
       <c r="M311" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N311" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.2">
@@ -16541,10 +16623,10 @@
         <v>0</v>
       </c>
       <c r="M312" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N312" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.2">
@@ -16585,10 +16667,10 @@
         <v>1</v>
       </c>
       <c r="M313" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N313" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.2">
@@ -16629,10 +16711,10 @@
         <v>0</v>
       </c>
       <c r="M314" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N314" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.2">
@@ -16673,10 +16755,10 @@
         <v>0</v>
       </c>
       <c r="M315" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N315" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.2">
@@ -16717,10 +16799,10 @@
         <v>0</v>
       </c>
       <c r="M316" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N316" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.2">
@@ -16761,10 +16843,10 @@
         <v>0</v>
       </c>
       <c r="M317" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N317" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.2">
@@ -16805,10 +16887,10 @@
         <v>0</v>
       </c>
       <c r="M318" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N318" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.2">
@@ -16849,10 +16931,10 @@
         <v>0</v>
       </c>
       <c r="M319" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N319" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.2">
@@ -16893,10 +16975,10 @@
         <v>0</v>
       </c>
       <c r="M320" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N320" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.2">
@@ -16937,10 +17019,10 @@
         <v>0</v>
       </c>
       <c r="M321" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N321" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.2">
@@ -16981,10 +17063,10 @@
         <v>1</v>
       </c>
       <c r="M322" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N322" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.2">
@@ -17025,10 +17107,10 @@
         <v>0</v>
       </c>
       <c r="M323" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N323" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.2">
@@ -17069,10 +17151,10 @@
         <v>0</v>
       </c>
       <c r="M324" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N324" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.2">
@@ -17113,10 +17195,10 @@
         <v>1</v>
       </c>
       <c r="M325" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N325" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.2">
@@ -17157,10 +17239,10 @@
         <v>1</v>
       </c>
       <c r="M326" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N326" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.2">
@@ -17201,10 +17283,10 @@
         <v>0</v>
       </c>
       <c r="M327" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N327" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.2">
@@ -17245,10 +17327,10 @@
         <v>0</v>
       </c>
       <c r="M328" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N328" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.2">
@@ -17289,10 +17371,10 @@
         <v>1</v>
       </c>
       <c r="M329" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N329" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.2">
@@ -17333,10 +17415,10 @@
         <v>0</v>
       </c>
       <c r="M330" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N330" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.2">
@@ -17377,10 +17459,10 @@
         <v>0</v>
       </c>
       <c r="M331" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N331" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.2">
@@ -17421,10 +17503,10 @@
         <v>0</v>
       </c>
       <c r="M332" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N332" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.2">
@@ -17465,10 +17547,10 @@
         <v>0</v>
       </c>
       <c r="M333" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N333" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.2">
@@ -17509,10 +17591,10 @@
         <v>0</v>
       </c>
       <c r="M334" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N334" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.2">
@@ -17553,10 +17635,10 @@
         <v>1</v>
       </c>
       <c r="M335" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N335" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.2">
@@ -17597,10 +17679,10 @@
         <v>0</v>
       </c>
       <c r="M336" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N336" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.2">
@@ -17641,10 +17723,10 @@
         <v>0</v>
       </c>
       <c r="M337" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N337" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.2">
@@ -17685,10 +17767,10 @@
         <v>0</v>
       </c>
       <c r="M338" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N338" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.2">
@@ -17729,10 +17811,10 @@
         <v>0</v>
       </c>
       <c r="M339" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N339" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.2">
@@ -17773,10 +17855,10 @@
         <v>1</v>
       </c>
       <c r="M340" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N340" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.2">
@@ -17817,10 +17899,10 @@
         <v>0</v>
       </c>
       <c r="M341" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N341" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.2">
@@ -17861,10 +17943,10 @@
         <v>0</v>
       </c>
       <c r="M342" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N342" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.2">
@@ -17905,10 +17987,10 @@
         <v>0</v>
       </c>
       <c r="M343" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N343" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.2">
@@ -17949,10 +18031,10 @@
         <v>0</v>
       </c>
       <c r="M344" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N344" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.2">
@@ -17993,10 +18075,10 @@
         <v>0</v>
       </c>
       <c r="M345" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N345" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.2">
@@ -18037,10 +18119,10 @@
         <v>0</v>
       </c>
       <c r="M346" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N346" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.2">
@@ -18081,10 +18163,10 @@
         <v>1</v>
       </c>
       <c r="M347" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N347" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.2">
@@ -18125,10 +18207,10 @@
         <v>0</v>
       </c>
       <c r="M348" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N348" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.2">
@@ -18169,10 +18251,10 @@
         <v>0</v>
       </c>
       <c r="M349" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N349" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.2">
@@ -18213,10 +18295,10 @@
         <v>0</v>
       </c>
       <c r="M350" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N350" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.2">
@@ -18257,10 +18339,10 @@
         <v>0</v>
       </c>
       <c r="M351" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N351" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.2">
@@ -18301,10 +18383,10 @@
         <v>0</v>
       </c>
       <c r="M352" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N352" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.2">
@@ -18345,10 +18427,10 @@
         <v>0</v>
       </c>
       <c r="M353" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N353" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.2">
@@ -18389,10 +18471,10 @@
         <v>0</v>
       </c>
       <c r="M354" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N354" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.2">
@@ -18433,10 +18515,10 @@
         <v>0</v>
       </c>
       <c r="M355" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N355" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.2">
@@ -18477,10 +18559,10 @@
         <v>0</v>
       </c>
       <c r="M356" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N356" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.2">
@@ -18521,10 +18603,10 @@
         <v>0</v>
       </c>
       <c r="M357" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N357" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.2">
@@ -18565,10 +18647,10 @@
         <v>0</v>
       </c>
       <c r="M358" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N358" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.2">
@@ -18609,10 +18691,10 @@
         <v>0</v>
       </c>
       <c r="M359" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N359" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.2">
@@ -18653,10 +18735,10 @@
         <v>0</v>
       </c>
       <c r="M360" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N360" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.2">
@@ -18697,10 +18779,10 @@
         <v>0</v>
       </c>
       <c r="M361" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N361" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.2">
@@ -18741,10 +18823,10 @@
         <v>0</v>
       </c>
       <c r="M362" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N362" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.2">
@@ -18785,10 +18867,10 @@
         <v>0</v>
       </c>
       <c r="M363" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N363" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.2">
@@ -18829,10 +18911,10 @@
         <v>0</v>
       </c>
       <c r="M364" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N364" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.2">
@@ -18873,10 +18955,10 @@
         <v>0</v>
       </c>
       <c r="M365" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N365" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.2">
@@ -18917,10 +18999,10 @@
         <v>0</v>
       </c>
       <c r="M366" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N366" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.2">
@@ -18961,10 +19043,10 @@
         <v>0</v>
       </c>
       <c r="M367" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N367" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.2">
@@ -19005,10 +19087,10 @@
         <v>0</v>
       </c>
       <c r="M368" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N368" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="369" spans="1:14" x14ac:dyDescent="0.2">
@@ -19049,10 +19131,10 @@
         <v>0</v>
       </c>
       <c r="M369" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N369" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="370" spans="1:14" x14ac:dyDescent="0.2">
@@ -19093,10 +19175,10 @@
         <v>0</v>
       </c>
       <c r="M370" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N370" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.2">
@@ -19137,10 +19219,10 @@
         <v>0</v>
       </c>
       <c r="M371" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N371" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="372" spans="1:14" x14ac:dyDescent="0.2">
@@ -19181,10 +19263,10 @@
         <v>0</v>
       </c>
       <c r="M372" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N372" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.2">
@@ -19225,10 +19307,10 @@
         <v>0</v>
       </c>
       <c r="M373" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N373" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.2">
@@ -19269,10 +19351,10 @@
         <v>0</v>
       </c>
       <c r="M374" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N374" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.2">
@@ -19313,10 +19395,10 @@
         <v>0</v>
       </c>
       <c r="M375" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N375" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="376" spans="1:14" x14ac:dyDescent="0.2">
@@ -19357,10 +19439,10 @@
         <v>0</v>
       </c>
       <c r="M376" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N376" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="377" spans="1:14" x14ac:dyDescent="0.2">
@@ -19401,10 +19483,10 @@
         <v>0</v>
       </c>
       <c r="M377" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N377" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="378" spans="1:14" x14ac:dyDescent="0.2">
@@ -19445,10 +19527,10 @@
         <v>0</v>
       </c>
       <c r="M378" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N378" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.2">
@@ -19489,10 +19571,10 @@
         <v>1</v>
       </c>
       <c r="M379" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N379" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="380" spans="1:14" x14ac:dyDescent="0.2">
@@ -19533,10 +19615,10 @@
         <v>0</v>
       </c>
       <c r="M380" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N380" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="381" spans="1:14" x14ac:dyDescent="0.2">
@@ -19577,10 +19659,10 @@
         <v>0</v>
       </c>
       <c r="M381" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N381" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="382" spans="1:14" x14ac:dyDescent="0.2">
@@ -19621,10 +19703,10 @@
         <v>0</v>
       </c>
       <c r="M382" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N382" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="383" spans="1:14" x14ac:dyDescent="0.2">
@@ -19665,10 +19747,10 @@
         <v>0</v>
       </c>
       <c r="M383" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N383" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="384" spans="1:14" x14ac:dyDescent="0.2">
@@ -19709,10 +19791,10 @@
         <v>0</v>
       </c>
       <c r="M384" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N384" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.2">
@@ -19753,10 +19835,10 @@
         <v>0</v>
       </c>
       <c r="M385" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N385" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.2">
@@ -19797,10 +19879,10 @@
         <v>1</v>
       </c>
       <c r="M386" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N386" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.2">
@@ -19841,10 +19923,10 @@
         <v>0</v>
       </c>
       <c r="M387" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N387" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="388" spans="1:14" x14ac:dyDescent="0.2">
@@ -19885,10 +19967,10 @@
         <v>0</v>
       </c>
       <c r="M388" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N388" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="389" spans="1:14" x14ac:dyDescent="0.2">
@@ -19929,10 +20011,10 @@
         <v>0</v>
       </c>
       <c r="M389" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N389" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="390" spans="1:14" x14ac:dyDescent="0.2">
@@ -19973,10 +20055,10 @@
         <v>0</v>
       </c>
       <c r="M390" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N390" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.2">
@@ -20017,10 +20099,10 @@
         <v>0</v>
       </c>
       <c r="M391" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N391" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="392" spans="1:14" x14ac:dyDescent="0.2">
@@ -20061,10 +20143,10 @@
         <v>0</v>
       </c>
       <c r="M392" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N392" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="393" spans="1:14" x14ac:dyDescent="0.2">
@@ -20105,10 +20187,10 @@
         <v>1</v>
       </c>
       <c r="M393" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N393" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="394" spans="1:14" x14ac:dyDescent="0.2">
@@ -20149,10 +20231,10 @@
         <v>1</v>
       </c>
       <c r="M394" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N394" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.2">
@@ -20193,10 +20275,10 @@
         <v>0</v>
       </c>
       <c r="M395" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N395" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="396" spans="1:14" x14ac:dyDescent="0.2">
@@ -20237,10 +20319,10 @@
         <v>1</v>
       </c>
       <c r="M396" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N396" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.2">
@@ -20281,10 +20363,10 @@
         <v>1</v>
       </c>
       <c r="M397" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N397" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.2">
@@ -20325,10 +20407,10 @@
         <v>1</v>
       </c>
       <c r="M398" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N398" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.2">
@@ -20369,10 +20451,10 @@
         <v>1</v>
       </c>
       <c r="M399" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N399" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.2">
@@ -20413,10 +20495,10 @@
         <v>1</v>
       </c>
       <c r="M400" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N400" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="401" spans="1:14" x14ac:dyDescent="0.2">
@@ -20457,10 +20539,10 @@
         <v>0</v>
       </c>
       <c r="M401" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N401" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.2">
@@ -20501,10 +20583,10 @@
         <v>0</v>
       </c>
       <c r="M402" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N402" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="403" spans="1:14" x14ac:dyDescent="0.2">
@@ -20545,10 +20627,10 @@
         <v>0</v>
       </c>
       <c r="M403" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N403" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.2">
@@ -20589,10 +20671,10 @@
         <v>0</v>
       </c>
       <c r="M404" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N404" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="405" spans="1:14" x14ac:dyDescent="0.2">
@@ -20633,10 +20715,10 @@
         <v>0</v>
       </c>
       <c r="M405" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N405" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.2">
@@ -20677,10 +20759,10 @@
         <v>0</v>
       </c>
       <c r="M406" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N406" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.2">
@@ -20721,10 +20803,10 @@
         <v>1</v>
       </c>
       <c r="M407" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N407" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="408" spans="1:14" x14ac:dyDescent="0.2">
@@ -20765,10 +20847,10 @@
         <v>0</v>
       </c>
       <c r="M408" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N408" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.2">
@@ -20809,10 +20891,10 @@
         <v>0</v>
       </c>
       <c r="M409" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N409" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.2">
@@ -20853,10 +20935,10 @@
         <v>0</v>
       </c>
       <c r="M410" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N410" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.2">
@@ -20897,10 +20979,10 @@
         <v>0</v>
       </c>
       <c r="M411" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N411" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.2">
@@ -20941,10 +21023,10 @@
         <v>1</v>
       </c>
       <c r="M412" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N412" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.2">
@@ -20985,10 +21067,10 @@
         <v>0</v>
       </c>
       <c r="M413" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N413" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.2">
@@ -21029,10 +21111,10 @@
         <v>0</v>
       </c>
       <c r="M414" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N414" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.2">
@@ -21073,10 +21155,10 @@
         <v>0</v>
       </c>
       <c r="M415" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N415" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.2">
@@ -21117,10 +21199,10 @@
         <v>0</v>
       </c>
       <c r="M416" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N416" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.2">
@@ -21161,10 +21243,10 @@
         <v>0</v>
       </c>
       <c r="M417" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N417" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.2">
@@ -21205,10 +21287,10 @@
         <v>0</v>
       </c>
       <c r="M418" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N418" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.2">
@@ -21249,10 +21331,10 @@
         <v>0</v>
       </c>
       <c r="M419" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N419" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.2">
@@ -21293,10 +21375,10 @@
         <v>1</v>
       </c>
       <c r="M420" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N420" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.2">
@@ -21337,10 +21419,10 @@
         <v>0</v>
       </c>
       <c r="M421" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N421" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.2">
@@ -21381,10 +21463,10 @@
         <v>0</v>
       </c>
       <c r="M422" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N422" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.2">
@@ -21425,10 +21507,10 @@
         <v>0</v>
       </c>
       <c r="M423" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N423" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.2">
@@ -21469,10 +21551,10 @@
         <v>0</v>
       </c>
       <c r="M424" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N424" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.2">
@@ -21513,10 +21595,10 @@
         <v>1</v>
       </c>
       <c r="M425" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N425" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.2">
@@ -21557,10 +21639,10 @@
         <v>0</v>
       </c>
       <c r="M426" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N426" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.2">
@@ -21601,10 +21683,10 @@
         <v>0</v>
       </c>
       <c r="M427" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N427" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.2">
@@ -21645,10 +21727,10 @@
         <v>0</v>
       </c>
       <c r="M428" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N428" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.2">
@@ -21689,10 +21771,10 @@
         <v>0</v>
       </c>
       <c r="M429" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N429" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.2">
@@ -21733,10 +21815,10 @@
         <v>0</v>
       </c>
       <c r="M430" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N430" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.2">
@@ -21777,10 +21859,10 @@
         <v>1</v>
       </c>
       <c r="M431" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N431" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.2">
@@ -21821,10 +21903,10 @@
         <v>0</v>
       </c>
       <c r="M432" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N432" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.2">
@@ -21865,10 +21947,10 @@
         <v>0</v>
       </c>
       <c r="M433" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N433" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.2">
@@ -21909,10 +21991,10 @@
         <v>0</v>
       </c>
       <c r="M434" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N434" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.2">
@@ -21953,10 +22035,10 @@
         <v>1</v>
       </c>
       <c r="M435" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N435" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.2">
@@ -21997,10 +22079,10 @@
         <v>0</v>
       </c>
       <c r="M436" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N436" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.2">
@@ -22041,10 +22123,10 @@
         <v>1</v>
       </c>
       <c r="M437" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N437" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.2">
@@ -22085,10 +22167,10 @@
         <v>0</v>
       </c>
       <c r="M438" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N438" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.2">
@@ -22129,10 +22211,10 @@
         <v>0</v>
       </c>
       <c r="M439" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N439" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.2">
@@ -22173,10 +22255,10 @@
         <v>0</v>
       </c>
       <c r="M440" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N440" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.2">
@@ -22217,10 +22299,10 @@
         <v>0</v>
       </c>
       <c r="M441" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N441" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.2">
@@ -22261,10 +22343,10 @@
         <v>0</v>
       </c>
       <c r="M442" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N442" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.2">
@@ -22305,10 +22387,10 @@
         <v>0</v>
       </c>
       <c r="M443" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N443" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.2">
@@ -22349,10 +22431,10 @@
         <v>0</v>
       </c>
       <c r="M444" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N444" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.2">
@@ -22393,10 +22475,10 @@
         <v>0</v>
       </c>
       <c r="M445" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N445" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.2">
@@ -22437,10 +22519,10 @@
         <v>1</v>
       </c>
       <c r="M446" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N446" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.2">
@@ -22481,10 +22563,10 @@
         <v>0</v>
       </c>
       <c r="M447" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N447" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.2">
@@ -22525,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="M448" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N448" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.2">
@@ -22569,10 +22651,10 @@
         <v>0</v>
       </c>
       <c r="M449" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N449" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.2">
@@ -22613,10 +22695,10 @@
         <v>0</v>
       </c>
       <c r="M450" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N450" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.2">
@@ -22657,10 +22739,10 @@
         <v>0</v>
       </c>
       <c r="M451" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N451" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.2">
@@ -22701,10 +22783,10 @@
         <v>0</v>
       </c>
       <c r="M452" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N452" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.2">
@@ -22745,10 +22827,10 @@
         <v>0</v>
       </c>
       <c r="M453" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N453" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.2">
@@ -22789,10 +22871,10 @@
         <v>0</v>
       </c>
       <c r="M454" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N454" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.2">
@@ -22833,10 +22915,10 @@
         <v>0</v>
       </c>
       <c r="M455" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N455" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.2">
@@ -22877,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="M456" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N456" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.2">
@@ -22921,10 +23003,10 @@
         <v>0</v>
       </c>
       <c r="M457" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N457" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.2">
@@ -22965,10 +23047,10 @@
         <v>0</v>
       </c>
       <c r="M458" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N458" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.2">
@@ -23009,10 +23091,10 @@
         <v>0</v>
       </c>
       <c r="M459" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N459" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.2">
@@ -23053,10 +23135,10 @@
         <v>0</v>
       </c>
       <c r="M460" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N460" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.2">
@@ -23097,10 +23179,10 @@
         <v>0</v>
       </c>
       <c r="M461" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N461" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.2">
@@ -23141,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="M462" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N462" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.2">
@@ -23185,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="M463" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N463" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.2">
@@ -23229,10 +23311,10 @@
         <v>1</v>
       </c>
       <c r="M464" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N464" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.2">
@@ -23273,10 +23355,10 @@
         <v>0</v>
       </c>
       <c r="M465" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N465" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.2">
@@ -23317,10 +23399,10 @@
         <v>0</v>
       </c>
       <c r="M466" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N466" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.2">
@@ -23361,10 +23443,10 @@
         <v>0</v>
       </c>
       <c r="M467" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N467" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.2">
@@ -23405,10 +23487,10 @@
         <v>0</v>
       </c>
       <c r="M468" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N468" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.2">
@@ -23449,10 +23531,10 @@
         <v>0</v>
       </c>
       <c r="M469" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N469" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.2">
@@ -23493,10 +23575,10 @@
         <v>0</v>
       </c>
       <c r="M470" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N470" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.2">
@@ -23537,10 +23619,10 @@
         <v>1</v>
       </c>
       <c r="M471" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N471" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.2">
@@ -23581,10 +23663,10 @@
         <v>1</v>
       </c>
       <c r="M472" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N472" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.2">
@@ -23625,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="M473" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N473" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.2">
@@ -23669,10 +23751,10 @@
         <v>0</v>
       </c>
       <c r="M474" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N474" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.2">
@@ -23713,10 +23795,10 @@
         <v>1</v>
       </c>
       <c r="M475" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N475" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.2">
@@ -23757,10 +23839,10 @@
         <v>1</v>
       </c>
       <c r="M476" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N476" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.2">
@@ -23801,10 +23883,10 @@
         <v>0</v>
       </c>
       <c r="M477" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N477" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.2">
@@ -23845,10 +23927,10 @@
         <v>0</v>
       </c>
       <c r="M478" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N478" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.2">
@@ -23889,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="M479" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N479" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.2">
@@ -23933,10 +24015,10 @@
         <v>0</v>
       </c>
       <c r="M480" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N480" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.2">
@@ -23977,10 +24059,10 @@
         <v>0</v>
       </c>
       <c r="M481" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N481" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.2">
@@ -24021,10 +24103,10 @@
         <v>1</v>
       </c>
       <c r="M482" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N482" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.2">
@@ -24065,10 +24147,10 @@
         <v>0</v>
       </c>
       <c r="M483" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N483" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.2">
@@ -24109,10 +24191,10 @@
         <v>0</v>
       </c>
       <c r="M484" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N484" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.2">
@@ -24153,10 +24235,10 @@
         <v>0</v>
       </c>
       <c r="M485" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N485" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.2">
@@ -24197,10 +24279,10 @@
         <v>0</v>
       </c>
       <c r="M486" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N486" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.2">
@@ -24241,10 +24323,10 @@
         <v>0</v>
       </c>
       <c r="M487" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N487" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.2">
@@ -24285,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="M488" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N488" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.2">
@@ -24329,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="M489" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N489" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="490" spans="1:14" x14ac:dyDescent="0.2">
@@ -24373,10 +24455,10 @@
         <v>1</v>
       </c>
       <c r="M490" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N490" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="491" spans="1:14" x14ac:dyDescent="0.2">
@@ -24417,10 +24499,10 @@
         <v>1</v>
       </c>
       <c r="M491" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N491" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.2">
@@ -24461,10 +24543,10 @@
         <v>0</v>
       </c>
       <c r="M492" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N492" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.2">
@@ -24505,10 +24587,10 @@
         <v>0</v>
       </c>
       <c r="M493" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N493" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.2">
@@ -24549,10 +24631,10 @@
         <v>0</v>
       </c>
       <c r="M494" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N494" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="495" spans="1:14" x14ac:dyDescent="0.2">
@@ -24593,10 +24675,10 @@
         <v>0</v>
       </c>
       <c r="M495" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N495" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.2">
@@ -24637,10 +24719,10 @@
         <v>0</v>
       </c>
       <c r="M496" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N496" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="497" spans="1:14" x14ac:dyDescent="0.2">
@@ -24681,10 +24763,10 @@
         <v>0</v>
       </c>
       <c r="M497" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N497" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="498" spans="1:14" x14ac:dyDescent="0.2">
@@ -24725,10 +24807,10 @@
         <v>1</v>
       </c>
       <c r="M498" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N498" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.2">
@@ -24769,10 +24851,10 @@
         <v>0</v>
       </c>
       <c r="M499" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N499" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.2">
@@ -24813,10 +24895,10 @@
         <v>0</v>
       </c>
       <c r="M500" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N500" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="501" spans="1:14" x14ac:dyDescent="0.2">
@@ -24857,10 +24939,10 @@
         <v>0</v>
       </c>
       <c r="M501" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N501" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="502" spans="1:14" x14ac:dyDescent="0.2">
@@ -24901,10 +24983,10 @@
         <v>0</v>
       </c>
       <c r="M502" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N502" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="503" spans="1:14" x14ac:dyDescent="0.2">
@@ -24945,10 +25027,10 @@
         <v>1</v>
       </c>
       <c r="M503" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N503" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="504" spans="1:14" x14ac:dyDescent="0.2">
@@ -24989,10 +25071,10 @@
         <v>0</v>
       </c>
       <c r="M504" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N504" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="505" spans="1:14" x14ac:dyDescent="0.2">
@@ -25033,10 +25115,10 @@
         <v>0</v>
       </c>
       <c r="M505" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N505" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="506" spans="1:14" x14ac:dyDescent="0.2">
@@ -25077,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="M506" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N506" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="507" spans="1:14" x14ac:dyDescent="0.2">
@@ -25121,10 +25203,10 @@
         <v>1</v>
       </c>
       <c r="M507" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N507" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="508" spans="1:14" x14ac:dyDescent="0.2">
@@ -25165,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="M508" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N508" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="509" spans="1:14" x14ac:dyDescent="0.2">
@@ -25209,10 +25291,10 @@
         <v>0</v>
       </c>
       <c r="M509" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N509" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="510" spans="1:14" x14ac:dyDescent="0.2">
@@ -25253,10 +25335,10 @@
         <v>0</v>
       </c>
       <c r="M510" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N510" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="511" spans="1:14" x14ac:dyDescent="0.2">
@@ -25297,10 +25379,10 @@
         <v>0</v>
       </c>
       <c r="M511" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N511" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Race_Gender_Breakdown.xlsx
+++ b/Race_Gender_Breakdown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/as822/Documents/GitHub/FLXSUS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91697EF2-C5F9-8B43-8543-D7FA4821ACCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3F8530-6819-044B-A669-2833288E954A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-5480" windowWidth="34400" windowHeight="28300" xr2:uid="{101D7EF5-ACAD-E84A-BEB6-A21BB2D31C28}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{101D7EF5-ACAD-E84A-BEB6-A21BB2D31C28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA2A70C-FCDE-6F48-94D9-0CF2A215B8C8}">
   <dimension ref="A1:AF511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O64" zoomScale="116" workbookViewId="0">
-      <selection activeCell="W92" sqref="W92"/>
+    <sheetView tabSelected="1" topLeftCell="X65" zoomScale="116" workbookViewId="0">
+      <selection activeCell="AF87" sqref="AF87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2360,7 +2360,7 @@
         <v>16</v>
       </c>
       <c r="R28">
-        <f>R14</f>
+        <f t="shared" ref="R28:R35" si="6">R14</f>
         <v>9</v>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
         <v>17</v>
       </c>
       <c r="R29">
-        <f>R15</f>
+        <f t="shared" si="6"/>
         <v>361</v>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="R30">
-        <f>R16</f>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
     </row>
@@ -2513,7 +2513,7 @@
         <v>19</v>
       </c>
       <c r="R31">
-        <f>R17</f>
+        <f t="shared" si="6"/>
         <v>116</v>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
         <v>20</v>
       </c>
       <c r="R32">
-        <f>R18</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
         <v>21</v>
       </c>
       <c r="R33">
-        <f>R19</f>
+        <f t="shared" si="6"/>
         <v>931</v>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
         <v>25</v>
       </c>
       <c r="R34">
-        <f>R20</f>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
         <v>22</v>
       </c>
       <c r="R35">
-        <f>R21</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -4147,19 +4147,19 @@
         <v>263</v>
       </c>
       <c r="S61">
-        <f t="shared" ref="S61:V61" si="6">COUNTIF(B:B,TRUE)</f>
+        <f t="shared" ref="S61:V61" si="7">COUNTIF(B:B,TRUE)</f>
         <v>123</v>
       </c>
       <c r="T61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>282</v>
       </c>
       <c r="U61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>152</v>
       </c>
       <c r="V61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
     </row>
@@ -4995,19 +4995,19 @@
         <v>25</v>
       </c>
       <c r="S76">
-        <f t="shared" ref="S76:V76" si="7">S58+S60</f>
+        <f t="shared" ref="S76:V76" si="8">S58+S60</f>
         <v>14</v>
       </c>
       <c r="T76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="U76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="V76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="W76" s="9" t="s">
@@ -5341,23 +5341,23 @@
         <v>141 (53.6%)</v>
       </c>
       <c r="AB81" t="str">
-        <f t="shared" ref="AB81:AF81" si="8">CONCATENATE(S81," (",TEXT(S92,"0.0%"),")")</f>
+        <f t="shared" ref="AB81:AF81" si="9">CONCATENATE(S81," (",TEXT(S92,"0.0%"),")")</f>
         <v>64 (52.0%)</v>
       </c>
       <c r="AC81" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>148 (52.5%)</v>
       </c>
       <c r="AD81" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>83 (54.6%)</v>
       </c>
       <c r="AE81" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>47 (56.6%)</v>
       </c>
       <c r="AF81" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>71 (4.5%)</v>
       </c>
     </row>
@@ -5430,27 +5430,27 @@
         <v>33</v>
       </c>
       <c r="AA82" t="str">
-        <f t="shared" ref="AA82:AF82" si="9">CONCATENATE(R82," (",TEXT(R93,"0.0%"),")")</f>
+        <f t="shared" ref="AA82:AF82" si="10">CONCATENATE(R82," (",TEXT(R93,"0.0%"),")")</f>
         <v>63 (24.0%)</v>
       </c>
       <c r="AB82" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>33 (26.8%)</v>
       </c>
       <c r="AC82" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43 (15.2%)</v>
       </c>
       <c r="AD82" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21 (13.8%)</v>
       </c>
       <c r="AE82" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12 (14.5%)</v>
       </c>
       <c r="AF82" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>931 (59.4%)</v>
       </c>
     </row>
@@ -5523,27 +5523,27 @@
         <v>34</v>
       </c>
       <c r="AA83" t="str">
-        <f t="shared" ref="AA83:AF83" si="10">CONCATENATE(R83," (",TEXT(R94,"0.0%"),")")</f>
+        <f t="shared" ref="AA83:AF83" si="11">CONCATENATE(R83," (",TEXT(R94,"0.0%"),")")</f>
         <v>94 (35.7%)</v>
       </c>
       <c r="AB83" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>48 (39.0%)</v>
       </c>
       <c r="AC83" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>93 (33.0%)</v>
       </c>
       <c r="AD83" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40 (26.3%)</v>
       </c>
       <c r="AE83" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>18 (21.7%)</v>
       </c>
       <c r="AF83" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>361 (23.0%)</v>
       </c>
     </row>
@@ -5616,27 +5616,27 @@
         <v>16</v>
       </c>
       <c r="AA84" t="str">
-        <f t="shared" ref="AA84:AF84" si="11">CONCATENATE(R84," (",TEXT(R95,"0.0%"),")")</f>
+        <f t="shared" ref="AA84:AF84" si="12">CONCATENATE(R84," (",TEXT(R95,"0.0%"),")")</f>
         <v>4 (1.5%)</v>
       </c>
       <c r="AB84" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2 (1.6%)</v>
       </c>
       <c r="AC84" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6 (2.1%)</v>
       </c>
       <c r="AD84" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3 (2.0%)</v>
       </c>
       <c r="AE84" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2 (2.4%)</v>
       </c>
       <c r="AF84" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9 (0.6%)</v>
       </c>
     </row>
@@ -5709,27 +5709,27 @@
         <v>36</v>
       </c>
       <c r="AA85" t="str">
-        <f t="shared" ref="AA85:AF85" si="12">CONCATENATE(R85," (",TEXT(R96,"0.0%"),")")</f>
+        <f t="shared" ref="AA85:AF85" si="13">CONCATENATE(R85," (",TEXT(R96,"0.0%"),")")</f>
         <v>25 (9.5%)</v>
       </c>
       <c r="AB85" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14 (11.4%)</v>
       </c>
       <c r="AC85" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>37 (13.1%)</v>
       </c>
       <c r="AD85" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>22 (14.5%)</v>
       </c>
       <c r="AE85" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12 (14.5%)</v>
       </c>
       <c r="AF85" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>69 (4.4%)</v>
       </c>
     </row>
@@ -5802,27 +5802,27 @@
         <v>19</v>
       </c>
       <c r="AA86" t="str">
-        <f t="shared" ref="AA86:AF86" si="13">CONCATENATE(R86," (",TEXT(R97,"0.0%"),")")</f>
+        <f t="shared" ref="AA86:AF86" si="14">CONCATENATE(R86," (",TEXT(R97,"0.0%"),")")</f>
         <v>71 (27.0%)</v>
       </c>
       <c r="AB86" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>37 (30.1%)</v>
       </c>
       <c r="AC86" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>62 (22.0%)</v>
       </c>
       <c r="AD86" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>38 (25.0%)</v>
       </c>
       <c r="AE86" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>19 (22.9%)</v>
       </c>
       <c r="AF86" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>116 (7.4%)</v>
       </c>
     </row>
@@ -5899,23 +5899,23 @@
         <v>263</v>
       </c>
       <c r="AB87">
-        <f t="shared" ref="AB87:AF87" si="14">S87</f>
+        <f t="shared" ref="AB87:AF87" si="15">S87</f>
         <v>123</v>
       </c>
       <c r="AC87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>282</v>
       </c>
       <c r="AD87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>152</v>
       </c>
       <c r="AE87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>83</v>
       </c>
       <c r="AF87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1567</v>
       </c>
     </row>
@@ -6167,23 +6167,23 @@
         <v>0.53612167300380231</v>
       </c>
       <c r="S92">
-        <f t="shared" ref="S92:W92" si="15">S81/S$87</f>
+        <f t="shared" ref="S92:W92" si="16">S81/S$87</f>
         <v>0.52032520325203258</v>
       </c>
       <c r="T92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.52482269503546097</v>
       </c>
       <c r="U92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.54605263157894735</v>
       </c>
       <c r="V92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.5662650602409639</v>
       </c>
       <c r="W92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.530950861518826E-2</v>
       </c>
     </row>
@@ -6234,27 +6234,27 @@
         <v>33</v>
       </c>
       <c r="R93">
-        <f t="shared" ref="R93:W93" si="16">R82/R$87</f>
+        <f t="shared" ref="R93:W93" si="17">R82/R$87</f>
         <v>0.23954372623574144</v>
       </c>
       <c r="S93">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.26829268292682928</v>
       </c>
       <c r="T93">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.1524822695035461</v>
       </c>
       <c r="U93">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.13815789473684212</v>
       </c>
       <c r="V93">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.14457831325301204</v>
       </c>
       <c r="W93">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.59412890874282065</v>
       </c>
     </row>
@@ -6305,27 +6305,27 @@
         <v>34</v>
       </c>
       <c r="R94">
-        <f t="shared" ref="R94:W94" si="17">R83/R$87</f>
+        <f t="shared" ref="R94:W94" si="18">R83/R$87</f>
         <v>0.35741444866920152</v>
       </c>
       <c r="S94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.3902439024390244</v>
       </c>
       <c r="T94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.32978723404255317</v>
       </c>
       <c r="U94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.26315789473684209</v>
       </c>
       <c r="V94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.21686746987951808</v>
       </c>
       <c r="W94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.23037651563497127</v>
       </c>
     </row>
@@ -6376,27 +6376,27 @@
         <v>16</v>
       </c>
       <c r="R95">
-        <f t="shared" ref="R95:W95" si="18">R84/R$87</f>
+        <f t="shared" ref="R95:W95" si="19">R84/R$87</f>
         <v>1.5209125475285171E-2</v>
       </c>
       <c r="S95">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.6260162601626018E-2</v>
       </c>
       <c r="T95">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.1276595744680851E-2</v>
       </c>
       <c r="U95">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.9736842105263157E-2</v>
       </c>
       <c r="V95">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.4096385542168676E-2</v>
       </c>
       <c r="W95">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.7434588385449903E-3</v>
       </c>
     </row>
@@ -6447,27 +6447,27 @@
         <v>36</v>
       </c>
       <c r="R96">
-        <f t="shared" ref="R96:W96" si="19">R85/R$87</f>
+        <f t="shared" ref="R96:W96" si="20">R85/R$87</f>
         <v>9.5057034220532313E-2</v>
       </c>
       <c r="S96">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.11382113821138211</v>
       </c>
       <c r="T96">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.13120567375886524</v>
       </c>
       <c r="U96">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.14473684210526316</v>
       </c>
       <c r="V96">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.14457831325301204</v>
       </c>
       <c r="W96">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.4033184428844928E-2</v>
       </c>
     </row>
@@ -6518,27 +6518,27 @@
         <v>19</v>
       </c>
       <c r="R97">
-        <f t="shared" ref="R97:W97" si="20">R86/R$87</f>
+        <f t="shared" ref="R97:W97" si="21">R86/R$87</f>
         <v>0.26996197718631176</v>
       </c>
       <c r="S97">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.30081300813008133</v>
       </c>
       <c r="T97">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.21985815602836881</v>
       </c>
       <c r="U97">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.25</v>
       </c>
       <c r="V97">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.2289156626506024</v>
       </c>
       <c r="W97">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.4026802807913211E-2</v>
       </c>
     </row>
@@ -6931,7 +6931,7 @@
         <v>931</v>
       </c>
       <c r="T104">
-        <f t="shared" ref="T104:T109" si="21">S104+R104</f>
+        <f t="shared" ref="T104:T109" si="22">S104+R104</f>
         <v>943</v>
       </c>
     </row>
@@ -6988,7 +6988,7 @@
         <v>361</v>
       </c>
       <c r="T105">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>379</v>
       </c>
     </row>
@@ -7045,7 +7045,7 @@
         <v>9</v>
       </c>
       <c r="T106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
     </row>
@@ -7102,7 +7102,7 @@
         <v>69</v>
       </c>
       <c r="T107">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>81</v>
       </c>
     </row>
@@ -7159,7 +7159,7 @@
         <v>116</v>
       </c>
       <c r="T108">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>135</v>
       </c>
     </row>
@@ -7216,7 +7216,7 @@
         <v>1567</v>
       </c>
       <c r="T109">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1650</v>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
         <v>47.435757575757577</v>
       </c>
       <c r="S113">
-        <f t="shared" ref="S113:S117" si="22">SUM((S$109*$T104)/$T$109)</f>
+        <f t="shared" ref="S113:S117" si="23">SUM((S$109*$T104)/$T$109)</f>
         <v>895.56424242424248</v>
       </c>
     </row>
@@ -7474,11 +7474,11 @@
         <v>34</v>
       </c>
       <c r="R114">
-        <f t="shared" ref="R114" si="23">SUM((R$109*$T105)/$T$109)</f>
+        <f t="shared" ref="R114" si="24">SUM((R$109*$T105)/$T$109)</f>
         <v>19.064848484848486</v>
       </c>
       <c r="S114">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>359.93515151515152</v>
       </c>
     </row>
@@ -7529,11 +7529,11 @@
         <v>16</v>
       </c>
       <c r="R115">
-        <f t="shared" ref="R115" si="24">SUM((R$109*$T106)/$T$109)</f>
+        <f t="shared" ref="R115" si="25">SUM((R$109*$T106)/$T$109)</f>
         <v>0.55333333333333334</v>
       </c>
       <c r="S115">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>10.446666666666667</v>
       </c>
     </row>
@@ -7584,11 +7584,11 @@
         <v>36</v>
       </c>
       <c r="R116">
-        <f t="shared" ref="R116" si="25">SUM((R$109*$T107)/$T$109)</f>
+        <f t="shared" ref="R116" si="26">SUM((R$109*$T107)/$T$109)</f>
         <v>4.0745454545454542</v>
       </c>
       <c r="S116">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>76.925454545454542</v>
       </c>
     </row>
@@ -7639,11 +7639,11 @@
         <v>19</v>
       </c>
       <c r="R117">
-        <f t="shared" ref="R117" si="26">SUM((R$109*$T108)/$T$109)</f>
+        <f t="shared" ref="R117" si="27">SUM((R$109*$T108)/$T$109)</f>
         <v>6.790909090909091</v>
       </c>
       <c r="S117">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>128.20909090909092</v>
       </c>
     </row>
@@ -8080,23 +8080,23 @@
         <v>62 (24.1%)</v>
       </c>
       <c r="AB125" t="str">
-        <f t="shared" ref="AB125:AF125" si="27">CONCATENATE(S125," (",TEXT(S148,"0.0%"),")")</f>
+        <f t="shared" ref="AB125:AF125" si="28">CONCATENATE(S125," (",TEXT(S148,"0.0%"),")")</f>
         <v>29 (24.2%)</v>
       </c>
       <c r="AC125" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>76 (27.5%)</v>
       </c>
       <c r="AD125" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>36 (24.5%)</v>
       </c>
       <c r="AE125" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>13 (16.3%)</v>
       </c>
       <c r="AF125" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1231 (78.5%)</v>
       </c>
     </row>
@@ -8172,23 +8172,23 @@
         <v>195 (75.9%)</v>
       </c>
       <c r="AB126" t="str">
-        <f t="shared" ref="AB126:AF126" si="28">CONCATENATE(S126," (",TEXT(S149,"0.0%"),")")</f>
+        <f t="shared" ref="AB126:AF126" si="29">CONCATENATE(S126," (",TEXT(S149,"0.0%"),")")</f>
         <v>91 (75.8%)</v>
       </c>
       <c r="AC126" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>200 (72.5%)</v>
       </c>
       <c r="AD126" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>111 (75.5%)</v>
       </c>
       <c r="AE126" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>67 (83.8%)</v>
       </c>
       <c r="AF126" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>337 (21.5%)</v>
       </c>
     </row>
@@ -9366,23 +9366,23 @@
         <v>0.24124513618677043</v>
       </c>
       <c r="S148">
-        <f t="shared" ref="S148:W148" si="29">S125/S$127</f>
+        <f t="shared" ref="S148:W148" si="30">S125/S$127</f>
         <v>0.24166666666666667</v>
       </c>
       <c r="T148">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.27536231884057971</v>
       </c>
       <c r="U148">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.24489795918367346</v>
       </c>
       <c r="V148">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.16250000000000001</v>
       </c>
       <c r="W148">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.78507653061224492</v>
       </c>
     </row>
@@ -9433,27 +9433,27 @@
         <v>45</v>
       </c>
       <c r="R149">
-        <f t="shared" ref="R149:W149" si="30">R126/R$127</f>
+        <f t="shared" ref="R149:W149" si="31">R126/R$127</f>
         <v>0.75875486381322954</v>
       </c>
       <c r="S149">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.7583333333333333</v>
       </c>
       <c r="T149">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.72463768115942029</v>
       </c>
       <c r="U149">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.75510204081632648</v>
       </c>
       <c r="V149">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.83750000000000002</v>
       </c>
       <c r="W149">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.21492346938775511</v>
       </c>
     </row>

--- a/Race_Gender_Breakdown.xlsx
+++ b/Race_Gender_Breakdown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/as822/Documents/GitHub/FLXSUS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3F8530-6819-044B-A669-2833288E954A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D47A1AE-F2A5-0547-959A-A7DACE62BABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{101D7EF5-ACAD-E84A-BEB6-A21BB2D31C28}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{101D7EF5-ACAD-E84A-BEB6-A21BB2D31C28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
